--- a/data/Producao_Bibliografica_Mestrandos.xlsx
+++ b/data/Producao_Bibliografica_Mestrandos.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,280 +1041,6 @@
       <c r="C40" t="inlineStr">
         <is>
           <t>Gonçalves, Vinícius Potrich de Souza Macedo. A dualidade do gueto homossexual segundo o jornal Lampião da Esquina. In: III Seminário de Pesquisa e Ensino da Graduação em História do IFCH, 2021, Campinas. Anais do III Seminário de Pesquisa e Ensino da Graduação em História do IFCH. Campinas: IFCH/UNICAMP, 2021. p. 260-268.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>"Vítimas ou resistentes? A produção de memórias sobre as experiências de pessoas LGBT+ durante a Ditadura Civil-Militar Brasileira. 2024. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>21º Encontro de História da Anpuh-Rio: História, Democracia, Igualdade e Diversidade.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>21º Encontro de História da Anpuh-Rio: História, Democracia, Igualdade e Diversidade.Trajetória de João Silvério Trevisan: Formação política e diálogo com as esquerdas.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>60 anos do golpe de 1964: periodização do regime em debate. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Seminário 60 anos do golpe: história, memória e novas abordagens da ditadura no Brasil. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Seminário História, Memória e Luta no Presente: reflexões a partir de imagens e testemunhos da Ditadura Militar Brasileira. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>I Encontro de Pesquisa História Política e Extrema Direita.O fundamentalismo de direita segundo João Silvério Trevisan.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado ? Edição 2023.As memórias de João Silvério Trevisan em "Pai, Pai" (2017). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>o 4º Encontro Internacional História &amp; Parcerias.Análise do testemunho de João Silvério Trevisan ao Memorial da Resistência de São Paulo: da infância ao exílio.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Semana de História PUC-Rio 2023: História, Arte e Literatura.A resistência do vaga-lume: o pensamento de João Silvério Trevisan acerca da vivência e do ativismo homossexual no Brasil durante as décadas de 1970 e 1980. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Seminário História Oral, Memória e Violência Política no Mundo Contemporâneo.O jornal Lampião da Esquina e a prática política homossexual. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>XVII Semana de História Política da Universidade do Estado do Rio de Janeiro | XIV Seminário Nacional de História: Política, Cultura e Sociedade ? Povos Originários e Ancestralidade: florestanias e alianças afetivas..As memórias de João Silvério Trevisan em "Pai, Pai" (2017). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>III Seminário de Pesquisa e Ensino da Graduação em História.O gueto homossexual e o texto "Saindo do Gueto" do Jornal Lampião da Esquina. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>XLII Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural (JICTAC 2020 - Edição Especial).O jornal Lampião da Esquina e a prática política homossexual. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>XV Semana de História Política da Universidade do Estado do Rio de Janeiro | XII Seminário Nacional de História: Política, Cultura e Sociedade ? O legado freiriano para o século XXI: as interfaces entre História Política e História Pública.O gueto homossexual e a prática política do jornal Lampião da Esquina. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>MOREIRA, A. ; MÜLLER, A. ; PIMENTEL, I. ; CORRÊA, L. ; GRINBERG, L. ; ARAUJO, M. P. ; MORAES, R. ; QUADRAT, S. ;GONÇALVES, V. P. S. M.. Seminário 60 anos do golpe: história, memória e novas abordagens da ditadura no Brasil. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Vinícius Potrich de Souza Macedo Gonçalves</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. C. S.;ARAUJO, M. P. N.;CAMPANHOLO, B. G.;EUGENIO, A. S.;FONTES SOBRINHO, D.;GHERMAN, M.;GONÇALVES, V. P. S. M.;MARTINS, M. V.;NASCIMENTO, B. M.;PINTO, S. A.;SILVA, I. G.;SILVA, I. P. P.;SILVA, L. C.;TARDITE, V. N.. 45 anos do golpe e da ditadura na Argentina: História, memória e diálogos com o Brasil. 2021. (Outro).</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,98 +1158,97 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Amaro Jose de Souza Neto</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ciclo de debates da disciplina ?Mulheres imaginadas: os usos da herança greco-romana nas concepções do natural feminino oitocentista?,.Representações da imperatriz romana Élia Eudóxia: uma análise de gênero nas Histórias Eclesiásticas do século V. 2024. (Outra).</t>
+          <t>NETO, A. J. S.. As mídías no Ensino de História: Por uma abordagem inclusiva dos patrimônios históricos na escola. In: II CONENCI: Congresso Nacional Online de Ensino Científico, 2021. II CONENCI Congresso Nacional Online de Ensino Científico, de 15/07/2021 a 18/07/2021 ISBN dos Anais: 978-65-89908-22-7, 2021. v. 02.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Amaro Jose de Souza Neto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IV CICLO DE DEBATES DO BRATHAIR-MA-Construindo Horizontes Globais: Abordagens Interdisciplinares na História.O conflito entre a imperatriz Élia Eudóxia (395 - 404) e o bispo João Crisóstomo (397 - 407):  um estudo sobre representações da atuação feminina em Constantinopla.
-						2024. (Simpósio).</t>
+          <t>NETO, A. J. S.. A cidade carioca como espaço de negociação: associações artísticas e cultura urbana no início do século XX. In: XV Semana de História Política e XII Seminário Nacional de História: Política, Cultura e Sociedade, 2021, Rio de Janeiro. Caderno de Resumos da XV Semana de História Política: O legado freiriano para o século XXI ? as interfaces entre História Política e História Pública / XII Seminário Nacional de História: Política, Cultura e Sociedade. PPGH UERJ. Rio de Janeiro: PPGH UERJ, 2021. v. 01. p. 111.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Ana Beatriz Ferreira Marques</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IV Seminário Mulheres na História, na Literatura e  nas Artes: entre práticas e representações.A atuação imperial feminina na sociedade tardo antiga: representações da Imperatriz Élia Eudóxia (395-404) em  Constantinopla. 2024. (Seminário).</t>
+          <t>MARQUES, A. B. F.. O fim do homem soviético? Uma análise das evocações do(s) passado(s) pelo presidenteVladimir Putin. In: Encontro de Pesquisa: História Política e Extrema Esquerda, 2023, Rio de Janeiro. Caderno de Resumos: Encontro de Pesquisa: História Política e Extrema Esquerda, 2023.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XX Jornada de História Antiga e Medieval e IV Jornada Virtual Internacional de História Mitos, Festivais e Representações no Mediterrâneo Antigo. Piedosa ou manipuladora? Representações da imperatriz romana Élia Eudóxia (395-404) em conflito com o bispo João Crisóstomo (397-403). 2024. (Congresso).</t>
+          <t>DA SILVA, DANIELLE FREIRE. A historiografia subalterna dos historiadores mapuche: uma análise crítica do livro ¡?Escucha, Winka?! Cuatro Ensayos de Historia Nacional Mapuche y un epílogo sobre el futuro. In: XVII Semana de História Política / Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. Caderno de Resumos da XVII Semana de História Política: Povos Originários e Ancestralidade: florestanias e alianças afetivas. Rio de Janeiro: Programa de Pós-Graduação em História da Universidade do Estado do Rio de Janeiro, 2023. v. vol.1. p. 5-205.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>XXXIV Ciclo de Debates em História Antiga: VIda e Experiências do tempo. As representações da Imperatriz Romana Élia Eudóxia(395-404) nas Histórias Eclesiásticas do século V: A atuação imperial feminina na Antiguidade Tardia. 2024. (Congresso).</t>
+          <t>SILVA, D. F.. A mobilização social mapuche nos anos da via chilena ao socialismo (1970-1973): uma leitura a partir dos jornais de esquerda.. In: Semana de História Política / Seminário Nacional de História: Política, Cultura e Sociedade, 2022, Rio de Janeiro. Caderno de Resumos da XVI Semana de História Política: De(s)colonizar a História: feminismos, resistências e interseccionalidade. Rio de Janeiro: Programa de Pós-Graduação em História da Universidade do Estado do Rio de Janeiro, 2022. p. 4-190.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>XXXV Semana de História.A autoridade feminina em Constantinopla: representações da imperatriz Eudóxia (395-404) em conflitos com a elite eclesiástica. 2024. (Seminário).</t>
+          <t>MENDES, Inghrid C. Masullo. 'A geral Associação das Classes Obreiras?: uma experiência de  organização de trabalhadores em Parnaíba-PI (1931-1935). In: Jornada de  Estudos Históricos Professor Manoel Salgado ? Edição 2023, 2023, Rio de Janeiro. Caderno de resumos da Jornada de Estudos Históricos Professor Manoel Salgado:  Resistência indígena no Brasil: Desafios contemporâneos, confronto territorial e violência  institucional, 2023.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1531,31 +1256,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12a Semana de Integração Acadêmica da UFRJ.A autoridade feminina no Império Romano do Oriente: representações da imperatriz Eudóxia (395-404) em conflitos com a elite eclesiástica.
-						2023. (Simpósio).</t>
+          <t>MENDES, I. C. M.. Deus, Pátria e Família: Reflexões sobre anticomunismo e extrema direita no Brasil. In: Encontro de Pesquisa: História Política e Extrema Direita, 2023, Rio de Janeiro. Caderno de resumos Encontro de pesquisa: história política e extrema direita, 2023. v. 1. p. 14-15.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IV Simpósio de História Antiga e Medieval.As representações da atuação política feminina no oriente tardo antigo: o caso da imperatriz Élia Eudóxia (395-404).
-						2023. (Simpósio).</t>
+          <t>MENDES, I. C. M.. SUBVERSIVOS: OS INQUÉRITOS POLICIAIS MILITARES  COMO FONTES PARA A HISTORIOGRAFIA PIAUIENSE (1935-1964). In: V Semana de História e I Simpósio Regional do PROFHISTÓRIA ? UESPI: Ensino de História e Direitos Humanos, 2022, Parnaíba. Livro de Resumos - V Semana de História e I Simpósio Regional do PROFHISTÓRIA ? UESPI: Ensino de História e Direitos Humanos. Teresina - PI: Editora da Universidade Estadual do Piauí - EdUESPI, 2022. v. 1.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1563,15 +1286,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VI Encontro Discente de História do Programa de Pós-graduação em História da Universidade Federal do Rio Grande do Sul.A Imperatriz Eudóxia e a cristianização de Gaza: o caso da construção da Igreja Eudoxiana.
-						2023. (Simpósio).</t>
+          <t>ROSARIO, Luana. Valorização e desenvolvimento na Amazônia: discursos e debates em torno da  Petrobras (1951-1954). In: Semana de História Política, 2023, Rio de Janeiro. Caderno de Resumos da XVII Semana de História Política: Povos Originários e Ancestralidade: florestanias e alianças afetivas, 2023. v. 2. p. 44-44.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1579,29 +1301,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>XIX Jornada de História Antiga e III Jornada Virtual Internacional de História Antiga e Medieval - Religião, Conectividade e Conflitos no Mediterrâneo  Antigo. Conflitos entre o poder imperial e o episcopado romano: o caso da Imperatriz Eudóxia (395-404) e o bispo João Crisóstomo em Constantinopla (397-403). 2023. (Congresso).</t>
+          <t>ROSARIO, Luana. A atuação do sindicato dos petroleiros na Amazônia sob perspectiva de espaço, redes e formação de classe.. In: Jornada de Estudos Históricos Professor Manoel Salgado, 2023, Rio de Janeiro. Caderno de Resumos da Jornada de Estudos Históricos Professor Manoel Salgado, 2023. v. 1. p. 25-26.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XXXIII Ciclo de debates em História Antiga ? História Antiga em movimento: 30 Anos do LHIA. Representações da autoridade feminina em conflitos com a elite eclesiástica na sociedade tardo antiga: o caso da imperatriz Élia Eudóxia (395-404). 2023. (Congresso).</t>
+          <t>ROSARIO, Luana. Na mira do A Província do Pará e Folha do Norte: O Sindicato dos Trabalhadores na Indústria da Extração do Petróleo do Estado do Pará, Amazonas e Maranhão (1960 a 1984). In: da XVI Semana de História Política ? XIII Seminário Nacional de História: Política, Cultura e Sociedade ? De(s)colonizar a História: Feminismos, Resistências e Interseccionalidade, 2022, Rio de Janeiro. Caderno de Resumos da XVI Semana de História Política. Rio de Janeiro, 2022. v. 1. p. 50-51.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1609,108 +1331,104 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11ª Semana de integração acadêmica da UFRJ.Pinturas brasileiras como ferramenta de ensino para aulas interdisciplinares: Interação entre geografia, história e artes.
-						2022. (Simpósio).</t>
+          <t>LEITE, LUCA. 'Que terrível devastação': as matas do Paraná e o debate público na era do capitalismo industrial (1854-1889). In: III Encontro Virtual de Laboratórios de História Ambiental do Brasil, 2022. Caderno de resumos do III Encontro Virtual de Laboratórios de História Ambiental do Brasil, 2022. p. 89-89.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.O conflito entre Eudóxia e João Crisóstomo: uma reflexão acerca da representação da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Bethelia.
-						2022. (Simpósio).</t>
+          <t>REGO, L. B; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C;QUEIROZ, A. C. B. Universidade, repressão e resistência: a trajetória de docentes cassados pela UFRJ durante a ditadura civil-militar (1964-1985). In: XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural da UFRJ, 2024, Rio de Janeiro. Caderno de resumo da XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural da UFRJ. Rio de Janeiro: UFRJ, 2024. v. 1. p. 11.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I Congresso Online do Messalinas - Grupo de Estudos sobre Gênero e Sexualidade na Antiguidade. O conflito entre a imperatriz Eudóxia e o bispo João Crisóstomo: Uma reflexão acerca da representação da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Bethelia. 2022. (Congresso).</t>
+          <t>BARROSO, L. O intelectual, o militante e o homossexual: como o Brasil dos anos 1960 moldou a nova vida de Conrad Detrez (1937-1985)?. In: III Seminário Discente do Programa de Pós-graduação em Ciências Sociais, 2024, São Leopoldo. AMORIM, Gabriel Chaves; VARONESE, Marília Veríssimo; CUNHA, Vanessa Silva da; DIAS, Amanda Couto; FILHO, Dorian (Orgs.). Caderno de resumos do III Seminário Discente. Cachoeirinha: Fi, 2024. v. 1. p. 39-40.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>III Simpósio de História Antiga e Medieval UNIVERSIDADE FEDERAL DO PAMPA: Decolonização e Descentramento das Histórias do Mundo Antigo e Medieval.Representações da autoridade feminina na Igreja do século IV - V d.C.:  o caso da imperatriz romana Élia Eudóxia (395-404).
-						2022. (Simpósio).</t>
+          <t>BARROSO, L. Memória como resistência: as Abuelas de Plaza de Mayo e a História como mestra da vida. In: I Seminário Nacional Multidisciplinar em Pesquisa Científica, 2024, Icó. Anais do I Seminário Nacional Multidisciplinar em Pesquisa Científica. Icó: Research, 2024. v. 1. p. 49-50.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Semana de História 2022 PUC RIO.O conflito entre a imperatriz Eudóxia (377 d.C. - 404 d.C.) e o bispo João Crisóstomo (349 d.C. - 407 d.C.): uma reflexão sobre as representações da imperatriz nas Histórias Eclesiásticas de Sócrates Escolástico e Sozomeno de Betélia. 2022. (Seminário).</t>
+          <t>REGO, Lucas Barroso. O papel da Educação na promoção da inclusão social: um relato de experiência. In: I Congresso Nacional de Ciências Sociais e Humanas, 2024, João Pessoa. Anais do I Congresso Nacional de Ciências Sociais e Humanas. João Pessoa: SciencEduc, 2024.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>V Semana de História - Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado.Um estudo sobre as representações da autoridade feminina na Antiguidade Tardia: o caso da imperatriz romana Élia Eudóxia (395-404).
-						2022. (Simpósio).</t>
+          <t>REGO, L. B;FREITAS, T. S. A UFRJ e a ditadura civil-militar (1964-1985): a trajetória das professoras Maria Laura Mouzinho Leite Lopes e Elisa Frota Pessoa. In: XVIII Semana de História Política &amp; XV Seminário Nacional de História, 2024, Rio de Janeiro. Caderno de Resumos da XVIII Semana de História Política. Rio de Janeiro: Programa de Pós-Graduação em História, Universidade do Estado do Rio de Janeiro, 2024. v. 1. p. 69.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIMA, Amanda C. S.. XXXIV Ciclo de Debates em História Antiga: Vida e Experiências do tempo. 2024. (Congresso).</t>
+          <t>REGO, L. B. Universidade e ditadura: a trajetória dos docentes cassados pela UFRJ (1964-1985). In: XVII Semana de História Política &amp; XIV Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. Caderno de resumos da XVII Semana de História Política. Rio de Janeiro: Universidade do Estado do Rio de Janeiro, 2023. v. 1. p. 67.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1718,89 +1436,89 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AZEVEDO, S. F. L. D. ;LIMA, Amanda C. S.. I Congresso Online do Messalinas - Gênero e Sexualidade na Antiguidade: Possibilidades de Pesquisa e Ensino. 2022. (Congresso).</t>
+          <t>REGO, L. B;ASSEMANY, D. Unindo pontes e conectando conversas: o evento de extensão 'Conexões em Conversa'. In: 11ª Semana de Integração Acadêmica da UFRJ, 2022, Rio de Janeiro. Caderno de resumos da 11ª SIAc. Rio de Janeiro: Universidade Federal do Rio de Janeiro, 2022. p. 23.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Amanda De Carvalho Santos Lima</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BUSTAMANTE, R. M. ;LIMA, Amanda C. S.. Olhares brasileiros sobre o Egito Antigo?. 2021. (Outro).</t>
+          <t>REGO, L. B;SILVA, M. M. V. A;DELGADO, M. M;PAIVA, R. M. 'Qualificação para o Cuidado de Crianças e Adolescentes': resistência e educação popular em tempos de pandemia. In: 11ª Semana de Integração Acadêmica da UFRJ, 2022, Rio de Janeiro. Caderno de resumos da 11ª SIAc. Rio de Janeiro: Universidade Federal do Rio de Janeiro, 2022. p. 100.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NETO, A. J. S.. As mídías no Ensino de História: Por uma abordagem inclusiva dos patrimônios históricos na escola. In: II CONENCI: Congresso Nacional Online de Ensino Científico, 2021. II CONENCI Congresso Nacional Online de Ensino Científico, de 15/07/2021 a 18/07/2021 ISBN dos Anais: 978-65-89908-22-7, 2021. v. 02.</t>
+          <t>TEIXEIRA, A. M. C;NASCIMENTO, C. L;FERREIRA, H. C. D;REGO, L. B;DELGADO, M. M. Agroecologia, cidadania e defesa da terra: projeto 'Centro de Cidadania da Praia Vermelha' e a potência da extensão no universo virtual. In: 11ª Semana de Integração Acadêmica da UFRJ, 2022, Rio de Janeiro. Caderno de resumos da 11ª SIAc. Rio de Janeiro: Universidade Federal do Rio de Janeiro, 2022. p. 102.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Amaro Jose de Souza Neto</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NETO, A. J. S.. A cidade carioca como espaço de negociação: associações artísticas e cultura urbana no início do século XX. In: XV Semana de História Política e XII Seminário Nacional de História: Política, Cultura e Sociedade, 2021, Rio de Janeiro. Caderno de Resumos da XV Semana de História Política: O legado freiriano para o século XXI ? as interfaces entre História Política e História Pública / XII Seminário Nacional de História: Política, Cultura e Sociedade. PPGH UERJ. Rio de Janeiro: PPGH UERJ, 2021. v. 01. p. 111.</t>
+          <t>SANTOS, A. D;SILVA, M. E. C;BARBOSA, C. E. S;REGO, L. B; ARAUJO, A. S ; SANTOS, S. L . Dificuldades enfrentadas durante o ensino remoto em tempos de Covid-19. In: I Congresso Multiprofissional e Interdisciplinar em Atenção Primária à Saúde, 2022, Teresina. Anais do I Congresso Multiprofissional e Interdisciplinar em Atenção Primária à Saúde. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 48.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ferreira Marques</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MARQUES, A. B. F.. O fim do homem soviético? Uma análise das evocações do(s) passado(s) pelo presidenteVladimir Putin. In: Encontro de Pesquisa: História Política e Extrema Esquerda, 2023, Rio de Janeiro. Caderno de Resumos: Encontro de Pesquisa: História Política e Extrema Esquerda, 2023.</t>
+          <t>REGO, L. B. Os lenços das Madres e Abuelas de Plaza de Mayo como monumentos do ausente. In: II Encontro de Jovens Investigadores em Humanidades e Ciências Sociais, 2022, Coimbra. Livro de resumos do II Encontro de Jovens Investigadores em Humanidades e Ciências Sociais. Coimbra: Universidade de Coimbra, 2022. v. 1. p. 40-41.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DA SILVA, DANIELLE FREIRE. A historiografia subalterna dos historiadores mapuche: uma análise crítica do livro ¡?Escucha, Winka?! Cuatro Ensayos de Historia Nacional Mapuche y un epílogo sobre el futuro. In: XVII Semana de História Política / Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. Caderno de Resumos da XVII Semana de História Política: Povos Originários e Ancestralidade: florestanias e alianças afetivas. Rio de Janeiro: Programa de Pós-Graduação em História da Universidade do Estado do Rio de Janeiro, 2023. v. vol.1. p. 5-205.</t>
+          <t>BARROSO, L. Repressão e mobilização: um estudo de caso de uma greve ocorrida durante o Estado Novo. In: I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos, 2022, Teresina. MELO, Mayara Macêdo; FONTES, Lucas de Lima (Orgs.). Anais do I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 84.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1808,44 +1526,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SILVA, D. F.. A mobilização social mapuche nos anos da via chilena ao socialismo (1970-1973): uma leitura a partir dos jornais de esquerda.. In: Semana de História Política / Seminário Nacional de História: Política, Cultura e Sociedade, 2022, Rio de Janeiro. Caderno de Resumos da XVI Semana de História Política: De(s)colonizar a História: feminismos, resistências e interseccionalidade. Rio de Janeiro: Programa de Pós-Graduação em História da Universidade do Estado do Rio de Janeiro, 2022. p. 4-190.</t>
+          <t>REGO, L. B;BARBOSA, C. E. S;NYLAND, J. J. A. O. L;VIEIRA, Y. S. As pós-ditaduras na América Latina de hoje: os mitos historiográficos em torno dos passados autoritários. In: I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos, 2022, Teresina. MELO, Mayara Macêdo; FONTES, Lucas de Lima (Orgs.). Anais do I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 85.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MENDES, Inghrid C. Masullo. 'A geral Associação das Classes Obreiras?: uma experiência de  organização de trabalhadores em Parnaíba-PI (1931-1935). In: Jornada de  Estudos Históricos Professor Manoel Salgado ? Edição 2023, 2023, Rio de Janeiro. Caderno de resumos da Jornada de Estudos Históricos Professor Manoel Salgado:  Resistência indígena no Brasil: Desafios contemporâneos, confronto territorial e violência  institucional, 2023.</t>
+          <t>BARBOSA, C. E. S;BARRETO, J. A. A;REGO, L. B;NASCIMENTO, E. A;COSTA, Y. X. A.;MENESES, K. S; ROCHA, A. S . Diálogo sobre bullying: relato de experiência de uma roda de conversa. In: I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos, 2022, Teresina. MELO, Mayara Macêdo; FONTES, Lucas de Lima (Orgs.). Anais do I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 89.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MENDES, I. C. M.. Deus, Pátria e Família: Reflexões sobre anticomunismo e extrema direita no Brasil. In: Encontro de Pesquisa: História Política e Extrema Direita, 2023, Rio de Janeiro. Caderno de resumos Encontro de pesquisa: história política e extrema direita, 2023. v. 1. p. 14-15.</t>
+          <t>REGO, L. B. 'Qualificação para o Cuidado de Crianças e Adolescentes': educação popular e partilha de saberes em tempos de pandemia. In: V Seminário de Docência e Contemporaneidade, 2022, Natal. GUIMARÃES, Ítalo Nelson Dantas dos Santos et al (Org.). Anais do V Seminário de Docência e Contemporaneidade. Natal: Instituto Federal de Educação, Ciência e Tecnologia do Rio Grande do Norte, 2022. v. 1. p. 82-83.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1853,29 +1571,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MENDES, I. C. M.. SUBVERSIVOS: OS INQUÉRITOS POLICIAIS MILITARES  COMO FONTES PARA A HISTORIOGRAFIA PIAUIENSE (1935-1964). In: V Semana de História e I Simpósio Regional do PROFHISTÓRIA ? UESPI: Ensino de História e Direitos Humanos, 2022, Parnaíba. Livro de Resumos - V Semana de História e I Simpósio Regional do PROFHISTÓRIA ? UESPI: Ensino de História e Direitos Humanos. Teresina - PI: Editora da Universidade Estadual do Piauí - EdUESPI, 2022. v. 1.</t>
+          <t>REGO, L. B;NYLAND, J. J. A. O. L. Futebol, Política e Repressão: a Argentina durante e após a Copa do Mundo de 1978. In: II Mostra Nacional de Pesquisa e Tecnologia, 2022, José de Freitas. SANTANA, Geísa de Morais; SILVA, Antônio Lucas Farias; DUTRA, Larissa Rosso (Orgs.). Anais da II Mostra Nacional de Pesquisa e Tecnologia: protagonismo e inovações. José de Freitas: Instituto Produzir, 2022. v. 2. p. 79-80.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana. Valorização e desenvolvimento na Amazônia: discursos e debates em torno da  Petrobras (1951-1954). In: Semana de História Política, 2023, Rio de Janeiro. Caderno de Resumos da XVII Semana de História Política: Povos Originários e Ancestralidade: florestanias e alianças afetivas, 2023. v. 2. p. 44-44.</t>
+          <t>FREITAS, I. P. S;REGO, L. B;FREITAS, I. S. História da Educação do Campo: uma visão histórica e jurídica. In: I Mostra Nacional de Pesquisa e Extensão, 2021, José de Freitas. Anais da I Mostra Nacional de Pesquisa e Extensão. José de Freitas: Instituto Produzir, 2021. p. 485-486.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1883,440 +1601,140 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana. A atuação do sindicato dos petroleiros na Amazônia sob perspectiva de espaço, redes e formação de classe.. In: Jornada de Estudos Históricos Professor Manoel Salgado, 2023, Rio de Janeiro. Caderno de Resumos da Jornada de Estudos Históricos Professor Manoel Salgado, 2023. v. 1. p. 25-26.</t>
+          <t>MENEZES, L. M. C. C.. Anália Franco (1853-1919): Uma Feminista na luta pela Educação Democrática. In: IV ColóquiO de Gênero e Pesquisa Histórica da Universidade Estadual do Centro Oeste - UNICENTRO, 2023, Paraná. IV ColóquiO de Gênero e Pesquisa Histórica da Universidade Estadual do Centro Oeste - UNICENTRO, 2023.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana. Na mira do A Província do Pará e Folha do Norte: O Sindicato dos Trabalhadores na Indústria da Extração do Petróleo do Estado do Pará, Amazonas e Maranhão (1960 a 1984). In: da XVI Semana de História Política ? XIII Seminário Nacional de História: Política, Cultura e Sociedade ? De(s)colonizar a História: Feminismos, Resistências e Interseccionalidade, 2022, Rio de Janeiro. Caderno de Resumos da XVI Semana de História Política. Rio de Janeiro, 2022. v. 1. p. 50-51.</t>
+          <t>MENEZES, L. M. C. C.. Feminismo pela Educação: A centralidade feminina no projeto político-educacional de Anália Franco. In: IV Semana de História da e Gênero do GT de Gênero da ANPUH/RJ, 2023, Rio de Janeiro. IV Semana de História da e Gênero do GT de Gênero da ANPUH/RJ, 2023.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. 'Que terrível devastação': as matas do Paraná e o debate público na era do capitalismo industrial (1854-1889). In: III Encontro Virtual de Laboratórios de História Ambiental do Brasil, 2022. Caderno de resumos do III Encontro Virtual de Laboratórios de História Ambiental do Brasil, 2022. p. 89-89.</t>
+          <t>MENEZES, L. M. C. C.. As Damas da Educação na Primeira República: O projeto político-educacional da intelectual feminista Anália Emília Franco. In: XVII Semana de História Política XIV Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. Povos Origiários e Ancestralidade: florestanias e alianças afetivas, 2023.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>REGO, L. B; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C;QUEIROZ, A. C. B. Universidade, repressão e resistência: a trajetória de docentes cassados pela UFRJ durante a ditadura civil-militar (1964-1985). In: XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural da UFRJ, 2024, Rio de Janeiro. Caderno de resumo da XLV Jornada Giulio Massarani de Iniciação Científica, Tecnológica, Artística e Cultural da UFRJ. Rio de Janeiro: UFRJ, 2024. v. 1. p. 11.</t>
+          <t>MENEZES, L. M. C. C.. Democracia e República no Pensamento Educacional da Intelectual Feminista Anália Emília Franco (1853-1919). In: Jornada de Estudos Históricos Professora Manoel Salgado, 2023, Rio de Janeiro. Resistência Indígena no Brasil: Desafios Contemporâneos, Confronto Territorial e Violência Institucional, 2023.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BARROSO, L. O intelectual, o militante e o homossexual: como o Brasil dos anos 1960 moldou a nova vida de Conrad Detrez (1937-1985)?. In: III Seminário Discente do Programa de Pós-graduação em Ciências Sociais, 2024, São Leopoldo. AMORIM, Gabriel Chaves; VARONESE, Marília Veríssimo; CUNHA, Vanessa Silva da; DIAS, Amanda Couto; FILHO, Dorian (Orgs.). Caderno de resumos do III Seminário Discente. Cachoeirinha: Fi, 2024. v. 1. p. 39-40.</t>
+          <t>MENEZES, L. M. C. C.. Anália Franco: a educação como emancipadora da cidadania democrática. In: XVI Semana de História Política da UERJ  XIII Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. História: Política, Cultura e  Sociedade ? De(s)colonizar a história: feminismos, resistências e interseccionalidade, 2022.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BARROSO, L. Memória como resistência: as Abuelas de Plaza de Mayo e a História como mestra da vida. In: I Seminário Nacional Multidisciplinar em Pesquisa Científica, 2024, Icó. Anais do I Seminário Nacional Multidisciplinar em Pesquisa Científica. Icó: Research, 2024. v. 1. p. 49-50.</t>
+          <t>MENEZES, L. M. C. C.. Anália Franco: a educação como emancipadora da cidadania democrática. In: XVI Semana de História Política da UERJ  XIII Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. História: Política, Cultura e  Sociedade ? De(s)colonizar a história: feminismos, resistências e interseccionalidade, 2022.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>REGO, Lucas Barroso. O papel da Educação na promoção da inclusão social: um relato de experiência. In: I Congresso Nacional de Ciências Sociais e Humanas, 2024, João Pessoa. Anais do I Congresso Nacional de Ciências Sociais e Humanas. João Pessoa: SciencEduc, 2024.</t>
+          <t>MENEZES, L. M. C. C.. Anália Franco: a revolução pela educação. In: V Semana de História, 2022, Rio de Janeiro. Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado, 2022.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>REGO, L. B;FREITAS, T. S. A UFRJ e a ditadura civil-militar (1964-1985): a trajetória das professoras Maria Laura Mouzinho Leite Lopes e Elisa Frota Pessoa. In: XVIII Semana de História Política &amp; XV Seminário Nacional de História, 2024, Rio de Janeiro. Caderno de Resumos da XVIII Semana de História Política. Rio de Janeiro: Programa de Pós-Graduação em História, Universidade do Estado do Rio de Janeiro, 2024. v. 1. p. 69.</t>
+          <t>LIMA, N. S. O.; BHERING, A. D. . Primeira Guerra Mundial: o conhecimento histórico e outros protagonistas. In: Congresso Internacional Online de História - CONIHIS, 2021. Anais, 2021.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>REGO, L. B. Universidade e ditadura: a trajetória dos docentes cassados pela UFRJ (1964-1985). In: XVII Semana de História Política &amp; XIV Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. Caderno de resumos da XVII Semana de História Política. Rio de Janeiro: Universidade do Estado do Rio de Janeiro, 2023. v. 1. p. 67.</t>
+          <t>LIMA, N. S. O.; QUEIROZ, J. M. ; BHERING, A. D. . O ensino de história em tempos de pandemia: contribuições do ensino digital para a discussão sobre os protagonistas da história. In: Simpósio de Integração Acadêmica, 2021, Viçosa. Anais, 2021.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="inlineStr">
-        <is>
-          <t>REGO, L. B;ASSEMANY, D. Unindo pontes e conectando conversas: o evento de extensão 'Conexões em Conversa'. In: 11ª Semana de Integração Acadêmica da UFRJ, 2022, Rio de Janeiro. Caderno de resumos da 11ª SIAc. Rio de Janeiro: Universidade Federal do Rio de Janeiro, 2022. p. 23.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>REGO, L. B;SILVA, M. M. V. A;DELGADO, M. M;PAIVA, R. M. 'Qualificação para o Cuidado de Crianças e Adolescentes': resistência e educação popular em tempos de pandemia. In: 11ª Semana de Integração Acadêmica da UFRJ, 2022, Rio de Janeiro. Caderno de resumos da 11ª SIAc. Rio de Janeiro: Universidade Federal do Rio de Janeiro, 2022. p. 100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>TEIXEIRA, A. M. C;NASCIMENTO, C. L;FERREIRA, H. C. D;REGO, L. B;DELGADO, M. M. Agroecologia, cidadania e defesa da terra: projeto 'Centro de Cidadania da Praia Vermelha' e a potência da extensão no universo virtual. In: 11ª Semana de Integração Acadêmica da UFRJ, 2022, Rio de Janeiro. Caderno de resumos da 11ª SIAc. Rio de Janeiro: Universidade Federal do Rio de Janeiro, 2022. p. 102.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SANTOS, A. D;SILVA, M. E. C;BARBOSA, C. E. S;REGO, L. B; ARAUJO, A. S ; SANTOS, S. L . Dificuldades enfrentadas durante o ensino remoto em tempos de Covid-19. In: I Congresso Multiprofissional e Interdisciplinar em Atenção Primária à Saúde, 2022, Teresina. Anais do I Congresso Multiprofissional e Interdisciplinar em Atenção Primária à Saúde. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 48.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Os lenços das Madres e Abuelas de Plaza de Mayo como monumentos do ausente. In: II Encontro de Jovens Investigadores em Humanidades e Ciências Sociais, 2022, Coimbra. Livro de resumos do II Encontro de Jovens Investigadores em Humanidades e Ciências Sociais. Coimbra: Universidade de Coimbra, 2022. v. 1. p. 40-41.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Repressão e mobilização: um estudo de caso de uma greve ocorrida durante o Estado Novo. In: I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos, 2022, Teresina. MELO, Mayara Macêdo; FONTES, Lucas de Lima (Orgs.). Anais do I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 84.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>REGO, L. B;BARBOSA, C. E. S;NYLAND, J. J. A. O. L;VIEIRA, Y. S. As pós-ditaduras na América Latina de hoje: os mitos historiográficos em torno dos passados autoritários. In: I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos, 2022, Teresina. MELO, Mayara Macêdo; FONTES, Lucas de Lima (Orgs.). Anais do I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 85.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>BARBOSA, C. E. S;BARRETO, J. A. A;REGO, L. B;NASCIMENTO, E. A;COSTA, Y. X. A.;MENESES, K. S; ROCHA, A. S . Diálogo sobre bullying: relato de experiência de uma roda de conversa. In: I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos, 2022, Teresina. MELO, Mayara Macêdo; FONTES, Lucas de Lima (Orgs.). Anais do I Seminário Brasileiro da Literacia Científica Editora &amp; Cursos. Teresina: Literacia Científica Editora &amp; Cursos, 2022. v. 1. p. 89.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>REGO, L. B. 'Qualificação para o Cuidado de Crianças e Adolescentes': educação popular e partilha de saberes em tempos de pandemia. In: V Seminário de Docência e Contemporaneidade, 2022, Natal. GUIMARÃES, Ítalo Nelson Dantas dos Santos et al (Org.). Anais do V Seminário de Docência e Contemporaneidade. Natal: Instituto Federal de Educação, Ciência e Tecnologia do Rio Grande do Norte, 2022. v. 1. p. 82-83.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>REGO, L. B;NYLAND, J. J. A. O. L. Futebol, Política e Repressão: a Argentina durante e após a Copa do Mundo de 1978. In: II Mostra Nacional de Pesquisa e Tecnologia, 2022, José de Freitas. SANTANA, Geísa de Morais; SILVA, Antônio Lucas Farias; DUTRA, Larissa Rosso (Orgs.). Anais da II Mostra Nacional de Pesquisa e Tecnologia: protagonismo e inovações. José de Freitas: Instituto Produzir, 2022. v. 2. p. 79-80.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FREITAS, I. P. S;REGO, L. B;FREITAS, I. S. História da Educação do Campo: uma visão histórica e jurídica. In: I Mostra Nacional de Pesquisa e Extensão, 2021, José de Freitas. Anais da I Mostra Nacional de Pesquisa e Extensão. José de Freitas: Instituto Produzir, 2021. p. 485-486.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>MENEZES, L. M. C. C.. Anália Franco (1853-1919): Uma Feminista na luta pela Educação Democrática. In: IV ColóquiO de Gênero e Pesquisa Histórica da Universidade Estadual do Centro Oeste - UNICENTRO, 2023, Paraná. IV ColóquiO de Gênero e Pesquisa Histórica da Universidade Estadual do Centro Oeste - UNICENTRO, 2023.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>MENEZES, L. M. C. C.. Feminismo pela Educação: A centralidade feminina no projeto político-educacional de Anália Franco. In: IV Semana de História da e Gênero do GT de Gênero da ANPUH/RJ, 2023, Rio de Janeiro. IV Semana de História da e Gênero do GT de Gênero da ANPUH/RJ, 2023.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>MENEZES, L. M. C. C.. As Damas da Educação na Primeira República: O projeto político-educacional da intelectual feminista Anália Emília Franco. In: XVII Semana de História Política XIV Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. Povos Origiários e Ancestralidade: florestanias e alianças afetivas, 2023.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>MENEZES, L. M. C. C.. Democracia e República no Pensamento Educacional da Intelectual Feminista Anália Emília Franco (1853-1919). In: Jornada de Estudos Históricos Professora Manoel Salgado, 2023, Rio de Janeiro. Resistência Indígena no Brasil: Desafios Contemporâneos, Confronto Territorial e Violência Institucional, 2023.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>MENEZES, L. M. C. C.. Anália Franco: a educação como emancipadora da cidadania democrática. In: XVI Semana de História Política da UERJ  XIII Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. História: Política, Cultura e  Sociedade ? De(s)colonizar a história: feminismos, resistências e interseccionalidade, 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>MENEZES, L. M. C. C.. Anália Franco: a educação como emancipadora da cidadania democrática. In: XVI Semana de História Política da UERJ  XIII Seminário Nacional de História: Política, Cultura e Sociedade, 2023, Rio de Janeiro. História: Política, Cultura e  Sociedade ? De(s)colonizar a história: feminismos, resistências e interseccionalidade, 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>MENEZES, L. M. C. C.. Anália Franco: a revolução pela educação. In: V Semana de História, 2022, Rio de Janeiro. Outras memórias, novas narrativas: os lugares da historiografia na visibilização de sujeitos marginalizados em discursos sobre o passado, 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>LIMA, N. S. O.; BHERING, A. D. . Primeira Guerra Mundial: o conhecimento histórico e outros protagonistas. In: Congresso Internacional Online de História - CONIHIS, 2021. Anais, 2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>LIMA, N. S. O.; QUEIROZ, J. M. ; BHERING, A. D. . O ensino de história em tempos de pandemia: contribuições do ensino digital para a discussão sobre os protagonistas da história. In: Simpósio de Integração Acadêmica, 2021, Viçosa. Anais, 2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>SILVA, G. M. ; DORELLA, P. R. ;LIMA, N. S. O.; LOUZADA, V. F. . Historia Pública a partir da extensão: Podcast Música e História Colombiana. In: Simpósio de Integração Acadêmica, 2021. Anais, 2021.</t>
         </is>
@@ -2333,7 +1751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2631,7 +2049,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Beatriz Weisheimer de Mendonça</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2639,74 +2057,74 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Curso Básico de Arbitragem. 2024. (Outra).</t>
+          <t>MENDONÇA, B. W.. Familiares de boa vida e bons costumes? A trajetória de negociantes contrabandistas na instituição do Santo Ofício (Século XVIII).. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Beatriz Weisheimer de Mendonça</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Curso de Férias de Disputas Societárias. 2024. (Outra).</t>
+          <t>MENDONÇA, B. W.. DIGNOS DE PRESTÍGIO, DIGNOS DE PERDÃO? A ATUAÇÃO DA JUSTIÇA CIVIL PORTUGUESA DO PERÍODO POMBALINO NOS CRIMES COMETIDOS POR UMA NOVA NOBREZA.. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Beatriz Weisheimer de Mendonça</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Curso de Férias em Arbitragem do CJA/CBMA - Edição Natalina. 2024. (Outra).</t>
+          <t>MENDONÇA, B. W.. Homens de Conduta I r reprovável? A entrada e/ou permanência de negociantes nas ins tituições da Ordem de Cr i s to e da Familiatura do Santo Ofício após o cometimento do crime de contrabando (Século XVIII).. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Beatriz Weisheimer de Mendonça</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Homo bolsonarus e o limite da destruição. 2023. (Outra).</t>
+          <t>MENDONÇA, B. W.. Governo da Casa: Economia costumeira no Rio de Janeiro setecentista.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Beatriz Weisheimer de Mendonça</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>I Arbitration Day. 2023. (Outra).</t>
+          <t>MENDONÇA, B. W.. O governo da casa: Economia costumeira no Rio de Janeiro setecentista.. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2714,14 +2132,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mediação e Arbitragem: como usar?. 2023. (Outra).</t>
+          <t>DA SILVA, DANIELLE FREIRE. As mobilizações mapuches na Revista Punto Final (1970-1973). 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2729,14 +2147,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>V Congresso Internacional CBMA de Mediação. 2023. (Congresso).</t>
+          <t>DA SILVA, DANIELLE FREIRE. As mobilizações indígenas na imprensa meridional: visões e representações dos mapuches no governo Salvador Allende (1970-1973). 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2744,14 +2162,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Venerando la tradición, despreciando la historicidad: la guerra contra Ucrania. 2023. (Outra).</t>
+          <t>DA SILVA, DANIELLE FREIRE. As ocupações de terra e corridas de cercos mapuche no governo Salvador Allende (1970-1973). 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2759,74 +2177,74 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VI Congresso Internacional CBMA de Arbitragem. 2023. (Congresso).</t>
+          <t>SILVA, D. F.. A historiografia subalterna dos historiadores mapuche: uma análise crítica do livro ¡?Escucha, Winka?! Cuatro Ensayos de Historia Nacional Mapuche y un epílogo sobre el futuro. 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Where radicalisms meet and part away: Fascism, Nazism and Bolshevism as Social History. 2023. (Outra).</t>
+          <t>DA SILVA, DANIELLE FREIRE. A mobilização social mapuche nos anos da via chilena ao socialismo (1970-1973): uma leitura a partir dos jornais de esquerda. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Augusto Cesar Oliveira Martins</t>
+          <t>Felipe José Souza Fernandes da Silva</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Congresso Internacional em Comemoração aos 30 Anos do MERCOSUL e aos 22 Anos do NEADI. 2021. (Congresso).</t>
+          <t>SILVA, F. J. S. F.. A ideia de Bildung em Memórias Póstumas de Brás Cubas. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Felipe José Souza Fernandes da Silva</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MENDONÇA, B. W.. Familiares de boa vida e bons costumes? A trajetória de negociantes contrabandistas na instituição do Santo Ofício (Século XVIII).. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SILVA, F. J. S. F.. A Historicidade no Romance de Formação. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MENDONÇA, B. W.. DIGNOS DE PRESTÍGIO, DIGNOS DE PERDÃO? A ATUAÇÃO DA JUSTIÇA CIVIL PORTUGUESA DO PERÍODO POMBALINO NOS CRIMES COMETIDOS POR UMA NOVA NOBREZA.. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MONTEIRO, Fernanda. A ideia de formação presente em Emílio ou Da Educação (1762) de Jean-Jacques Rousseau. 2024. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2834,74 +2252,74 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MENDONÇA, B. W.. Homens de Conduta I r reprovável? A entrada e/ou permanência de negociantes nas ins tituições da Ordem de Cr i s to e da Familiatura do Santo Ofício após o cometimento do crime de contrabando (Século XVIII).. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MONTEIRO, Fernanda; RODRIGUES, A. . FRENTE E VERSO DA INDEPENDÊNCIA - HISTÓRIA EM 360⁰: UMA EXPERIÊNCIA DE EDUCAÇÃO MUSEAL NO BICENTENÁRIO DA INDEPENDÊNCIA DO BRASIL. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MENDONÇA, B. W.. Governo da Casa: Economia costumeira no Rio de Janeiro setecentista.. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. . ESPAÇO MEMORIALÍSTICO EM AÇÃO: POTENCIALIDADES DA MEMÓRIA E DA HISTÓRIA NA PRODUÇÃO DE NARRATIVAS SOBRE OS ESPAÇOS E OS SUJEITOS ESCOLARES. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MENDONÇA, B. W.. O governo da casa: Economia costumeira no Rio de Janeiro setecentista.. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MONTEIRO, Fernanda. O cultivo da infância e o devir do homem autogovernado: o lugar da criança no processo formativo do homem idealizado por Rousseau, Locke e Montaigne. 2023. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello;SAMPAIO, A. C. J.; M.  ; FRAGOSO, João ; FERREIRA, R. G. ; CONCEICAO, H. ; ALMEIDA, Carla M. ;MENDONÇA, B. W.;ALMEIDA, J. R.. Seminário Internacional Antigo Regime nos Trópicos - 20 Anos. 2021. (Outro).</t>
+          <t>MONTEIRO, Fernanda. Subjetivando a infância e o ser criança: a literatura pedagógica como um topos nos debates intelectuais acerca da formação do homem. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Beatriz Weisheimer de Mendonça</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Isabele de Matos Pereira de Mello; FRAGOSO, João ;SAMPAIO, A. C. J.; M.  ; FERREIRA, R. G. ; CONCEICAO, H. ; ALMEIDA, Carla M. ;ALMEIDA, J. R.;MENDONÇA, B. W.. ART EM TESES: NOVAS PESQUISAS.. 2021. (Outro).</t>
+          <t>MONTEIRO, Fernanda. Sistematizando para debater: a reinvenção de Jean-Jacques Rousseau como educador em Emílio ou Da Educação (1762). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2909,59 +2327,59 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DA SILVA, DANIELLE FREIRE. As mobilizações mapuches na Revista Punto Final (1970-1973). 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>COSTA, A. F ;MONTEIRO, Fernanda. 'Frente e Verso da Independência - história em 360º' - museu, educação e história em uma perspectiva decolonial.. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DA SILVA, DANIELLE FREIRE. As mobilizações indígenas na imprensa meridional: visões e representações dos mapuches no governo Salvador Allende (1970-1973). 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. ; TUKIA, G. A. . Sua Escola Tem História: Narrativa de Professores. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DA SILVA, DANIELLE FREIRE. As ocupações de terra e corridas de cercos mapuche no governo Salvador Allende (1970-1973). 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. ; XAVIER, Libania. Nacif . PARTILHANDO MEMÓRIAS E CONSTRUINDO HISTÓRIAS: COMO A ESCOLA SE FAZ PRESENTE NA IDENTIDADE FLUMINENSE. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SILVA, D. F.. A historiografia subalterna dos historiadores mapuche: uma análise crítica do livro ¡?Escucha, Winka?! Cuatro Ensayos de Historia Nacional Mapuche y un epílogo sobre el futuro. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>MONTEIRO, Fernanda; COSTA, A. F ; MARTI, FRIEDA MARIA ; SEDA, C. B. . ?ABELHAS E NÓS?: UMA EXPERIÊNCIA SÍNCRONA DE MEDIAÇÃO MUSEAL ONLINE COM ESTUDANTES DO ENSINO FUNDAMENTAL. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Danielle Freire da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2969,29 +2387,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DA SILVA, DANIELLE FREIRE. A mobilização social mapuche nos anos da via chilena ao socialismo (1970-1973): uma leitura a partir dos jornais de esquerda. 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>MONTEIRO, Fernanda; RODRIGUES, A. . PRÁTICAS DE EDUCAÇÃO MUSEAL COM O ENSINO FUNDAMENTAL NO PARQUE DA QUINTA DA BOA VISTA. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SILVA, F. J. S. F.. A ideia de Bildung em Memórias Póstumas de Brás Cubas. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>XAVIER, Libania. Nacif ; CONCEICAO, L. F. O. M. ;MONTEIRO, Fernanda; SANTANA, L. . Sua Escola Tem História: um lugar às memórias escolares. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Fernanda Silva Monteiro Pinto</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2999,104 +2417,104 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SILVA, F. J. S. F.. A Historicidade no Romance de Formação. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. ; SANTANA, L. . Sua Escola Tem História. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Gabriel Camejo Sampaio</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Seminário Nacional História e Ficção: as formas do (des)encontro.O Romance de Formação na obra de Machado de Assis. 2024. (Seminário).</t>
+          <t>SAMPAIO, G. C.. A CONDIÇÃO DA COMUNIDADE ISLÂMICA DENTRO DO REINO DE AFONSO X (1221 ? 1284). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Gabriel Camejo Sampaio</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12ª Semana de Integração Acadêmica da UFRJ.Memórias Póstumas de Brás Cubas como Romance de Formação. 2023. (Seminário).</t>
+          <t>SAMPAIO, G. C.. O processo de marginalização da comunidade islâmica no reinado de Afonso X: um debate historiográfico. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Gabriela Fernandes Petrungaro</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.O Romance de Formação na obra de Machado de Assis. 2023. (Seminário).</t>
+          <t>PETRUNGARO, G. F.. A polícia do Rio de Janeiro na década de 1950: os escritos de Epitácio Timbaúba no Diário Carioca. 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Gabriela Fernandes Petrungaro</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da UFRJ.A Ideia de Formação em Memórias Póstumas de Brás Cubas. 2022. (Seminário).</t>
+          <t>PETRUNGARO, G. F.. A polícia da década de 1950: os escritos de Epitácio Timbaúba no Diário Carioca. 2023. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Felipe José Souza Fernandes da Silva</t>
+          <t>Gabriela Fernandes Petrungaro</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>42ª Jornada Giulio Massarani de Iniciação Científica tecnológica Artística e Cultural.A Historicidade no Romance de Formação. 2021. (Seminário).</t>
+          <t>PETRUNGARO, G. F.. Proibição da maconha no Brasil do século XX: influência dos preceitos e moralismos da religião católica nesse processo. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda. A ideia de formação presente em Emílio ou Da Educação (1762) de Jean-Jacques Rousseau. 2024. (Apresentação de Trabalho/Congresso).</t>
+          <t>MENDES, Inghrid C. Masullo. ?'A geral Associação das Classes Obreiras?: uma experiência de  organização de trabalhadores em Parnaíba-PI (1931-1935)?. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3104,14 +2522,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda; RODRIGUES, A. . FRENTE E VERSO DA INDEPENDÊNCIA - HISTÓRIA EM 360⁰: UMA EXPERIÊNCIA DE EDUCAÇÃO MUSEAL NO BICENTENÁRIO DA INDEPENDÊNCIA DO BRASIL. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, I. C. M.. Deus, Pátria e Família: Reflexões sobre anticomunismo e extrema direita no Brasil. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3119,44 +2537,44 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. . ESPAÇO MEMORIALÍSTICO EM AÇÃO: POTENCIALIDADES DA MEMÓRIA E DA HISTÓRIA NA PRODUÇÃO DE NARRATIVAS SOBRE OS ESPAÇOS E OS SUJEITOS ESCOLARES. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, Inghrid C. Masullo. ?¡¿QUIÉN PODRÁ SABER QUE TANTOS COMUNISTAS PODRÍAN AMONTONARSE ALLÍ?!?: EL PCB EN PIAUÍ Y LOS TRAYECTOS DE LOS TRABAJADORES MILITANTES EN LA CIUDAD DE PARNAÍBA-PI (1935-1945). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda. O cultivo da infância e o devir do homem autogovernado: o lugar da criança no processo formativo do homem idealizado por Rousseau, Locke e Montaigne. 2023. (Apresentação de Trabalho/Congresso).</t>
+          <t>MENDES, I. C. M.. SUBVERSIVOS: Os inquéritos policiais militares como fontes para a historiografia piauiense (1935-1964. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Inghrid da Costa Masullo Mendes</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda. Subjetivando a infância e o ser criança: a literatura pedagógica como um topos nos debates intelectuais acerca da formação do homem. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENDES, I. C. M.. Métodos e técnicas de pesquisa: História oral. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3164,14 +2582,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda. Sistematizando para debater: a reinvenção de Jean-Jacques Rousseau como educador em Emílio ou Da Educação (1762). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GOMES, I. S.; OLIVEIRA, L. S. . Gênero, Maternidade e Testemunho: entre a ditadura e a democracia. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3179,119 +2597,119 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>COSTA, A. F ;MONTEIRO, Fernanda. 'Frente e Verso da Independência - história em 360º' - museu, educação e história em uma perspectiva decolonial.. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GOMES, I. S.. O processo de justiça de transição brasileiro: uma análise das Leis No 6.683 de 1979 e No 9.140 de 1995. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. ; TUKIA, G. A. . Sua Escola Tem História: Narrativa de Professores. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GOMES, I. S.. O Desaparecimento Forçado na Comissão Nacional da Verdade do Brasil. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. ; XAVIER, Libania. Nacif . PARTILHANDO MEMÓRIAS E CONSTRUINDO HISTÓRIAS: COMO A ESCOLA SE FAZ PRESENTE NA IDENTIDADE FLUMINENSE. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GOMES, I. S.; MARTINS, F. P. . Violência de gênero e violência sexual: uma análise das categorias e do conceito de vítima no relatório final da Comissão Nacional da Verdade. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda; COSTA, A. F ; MARTI, FRIEDA MARIA ; SEDA, C. B. . ?ABELHAS E NÓS?: UMA EXPERIÊNCIA SÍNCRONA DE MEDIAÇÃO MUSEAL ONLINE COM ESTUDANTES DO ENSINO FUNDAMENTAL. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GOMES, I. S.; PINTO, S. A. . Trajetória, trauma e testemunho: uma análise do desaparecimento forçado em ?Seu Amigo Esteve Aqui? e ?K. Relato de uma Busca?. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda; RODRIGUES, A. . PRÁTICAS DE EDUCAÇÃO MUSEAL COM O ENSINO FUNDAMENTAL NO PARQUE DA QUINTA DA BOA VISTA. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GOMES, I. S.. ?Marcas da Memória?: O estatuto do desaparecido político, Representação e Testemunho na entrevista de Bernardo da Mata Machado. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>XAVIER, Libania. Nacif ; CONCEICAO, L. F. O. M. ;MONTEIRO, Fernanda; SANTANA, L. . Sua Escola Tem História: um lugar às memórias escolares. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>GOMES, I. S.; MARTINS, F. P. . Violência de gênero e violência sexual: as memórias em disputas no relatório final da Comissão Nacional da Verdade. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fernanda Silva Monteiro Pinto</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MONTEIRO, Fernanda; CONCEICAO, L. F. O. M. ; SANTANA, L. . Sua Escola Tem História. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>GOMES, I. S.; PINTO, S. A. . O estatuto do desaparecimento forçado na Comissão Nacional da Verdade. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gabriel Camejo Sampaio</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SAMPAIO, G. C.. A CONDIÇÃO DA COMUNIDADE ISLÂMICA DENTRO DO REINO DE AFONSO X (1221 ? 1284). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GOMES, I. S.. O estatuto do desaparecimento forçado na Comissão Nacional da Verdade: uma análise do sentido de vítima no relatório final da CNV. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gabriel Camejo Sampaio</t>
+          <t>Isadora Silva Gomes</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3299,14 +2717,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SAMPAIO, G. C.. O processo de marginalização da comunidade islâmica no reinado de Afonso X: um debate historiográfico. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>GOMES, I. S.. Testemunho, Biografia e História: a análise da trajetória de vida de Felipe Santa Cruz. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gabriel Camejo Sampaio</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3314,135 +2732,134 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisas Históricas (EPHIS) História na Era Digital.A Relação entre Literatura de Horror e o Discurso de Legitimação Imperial.
-						2023. (Simpósio).</t>
+          <t>MEDINA, I. S. L.. POR OUTROS SABERES DO VESTIR: UMA EPISTEMOLOGIA DAS MACUMBAS QUE AJUDE A PENSAR MODOS DE VESTIR SUBALTERNOS. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gabriela Fernandes Petrungaro</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PETRUNGARO, G. F.. A polícia do Rio de Janeiro na década de 1950: os escritos de Epitácio Timbaúba no Diário Carioca. 2024. (Apresentação de Trabalho/Seminário).</t>
+          <t>MEDINA, ISIS SARAIVA LEÃO; LIMA, Ana Gabriella dos Santos . LOGRADOUROS NEGROS: A PRESENÇA DE AFRICANOS E AFRODESCENDENTES NOS MORROS DA CONCEIÇÃO E DO VALONGO REGISTRADA EM NOTÍCIAS DO DIÁRIO DO RIO DE JANEIRO ENTRE 1820 E 1840. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gabriela Fernandes Petrungaro</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PETRUNGARO, G. F.. A polícia da década de 1950: os escritos de Epitácio Timbaúba no Diário Carioca. 2023. (Apresentação de Trabalho/Seminário).</t>
+          <t>MEDINA, I. S. L.. ROUPA, MEMÓRIA E AXÉ: REFLEXÕES POSSÍVEIS SOBRE AS VESTES UMBANDISTAS À LUZ DA DECOLONIALIDADE. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Gabriela Fernandes Petrungaro</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PETRUNGARO, G. F.. Proibição da maconha no Brasil do século XX: influência dos preceitos e moralismos da religião católica nesse processo. 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>ABREU, L. S. ; MOREIRA, E. S. ;MEDINA, I. S. L.; FRANKLIN, M. S. ;MENDES, F. R. N.. O TINGIMENTO NATURAL NO PROCESSO CRIATIVO DE MODA: UMA COMPARAÇÃO ENTRE A MARCA GRÃO E A PESQUISADORA TÊXTIL RAYNÁ GOMES. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MENDES, Inghrid C. Masullo. ?'A geral Associação das Classes Obreiras?: uma experiência de  organização de trabalhadores em Parnaíba-PI (1931-1935)?. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MEDINA, I. S. L.;MENDES, F. R. N.. VOVÓ TEM 7 SAIAS, NA ÚLTIMA SAIA TEM MIRONGA: A DIMENSÃO SIMBÓLICA DA INDUMENTÁRIA NO CONTEXTO DO TERREIRO DE UMBANDA. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MENDES, I. C. M.. Deus, Pátria e Família: Reflexões sobre anticomunismo e extrema direita no Brasil. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MEDINA, I. S. L.;ALBUQUERQUE, P. M. M.. INDUMENTÁRIAS NEGRAS: ANÁLISE DE RETRATOS DE MULHERES NEGRAS EM DEBRET E MARC FERREZ. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MENDES, Inghrid C. Masullo. ?¡¿QUIÉN PODRÁ SABER QUE TANTOS COMUNISTAS PODRÍAN AMONTONARSE ALLÍ?!?: EL PCB EN PIAUÍ Y LOS TRAYECTOS DE LOS TRABAJADORES MILITANTES EN LA CIUDAD DE PARNAÍBA-PI (1935-1945). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MEDINA, I. S. L.; FRANKLIN, M. S. ; ABREU, L. S. ;MENDES, F. R. N.. ENTRE MODA, NATUREZA E REGIONALIDADE: O FAZER ARTESANAL DO TINGIMENTO NATURAL NO PROCESSO CRIATIVO. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Isis Saraiva Leão Medina</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MENDES, I. C. M.. SUBVERSIVOS: Os inquéritos policiais militares como fontes para a historiografia piauiense (1935-1964. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MAIA, L. M. ;MARTINS, J. G. V.;MEDINA, I. S. L.;MENDES, F. R. N.. A MODA POR TRÁS DAS TELAS: A RELAÇÃO CORPO-AUTOESTIMA ENTRE O REAL E O VIRTUAL. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MENDES, I. C. M.. Métodos e técnicas de pesquisa: História oral. 2022. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>THIMOTEO, João Pedro. O Partido dos Trabalhadores na mira da ditadura: Luta de massas e repressão política na transição à democracia (1979-1988).. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3450,29 +2867,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Imagens visuais anticomunistas: das representações tradicionais ao contexto bolsonarista. 2023. (Outra).</t>
+          <t>THIMOTEO, João Pedro. O Partidos dos Trabalhadores e o processo de transição brasileiro. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>João Pedro Teixeira Ferreira Thimoteo</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ISRAEL COMO MODELO CULTURAL: Imaginários e Usos na nova extrema-direita. 2023. (Seminário).</t>
+          <t>THIMOTEO, João Pedro; SOUZA, Andrei Leite de. . UM OUTRO MARX É POSSÍVEL: CRÍTICA DO PROGRESSO E ROMANTISMO EM O CAPITAL. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Juliana Batista</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3480,107 +2897,104 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Memória, Movimentos Sociais e Acervos digitais. 2023. (Outra).</t>
+          <t>BATISTA, J.;BATISTA, J.. Os registros paroquias: batismo de crioulo adulto em Nossa Senhora da Piedade de Iguaçu (1750-1815). 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Juliana Batista</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as y movimiento obrero y sindical en los siglos XX y XXI.?¡¿QUIÉN PODRÁ SABER QUE TANTOS COMUNISTAS PODRÍAN AMONTONARSE ALLÍ?!?: EL PCB EN PIAUÍ Y LOS TRAYECTOS DE LOS TRABAJADORES MILITANTES EN LA CIUDAD DE PARNAÍBA-PI (1935-1964).
-						2023. (Simpósio).</t>
+          <t>BATISTA, J.;BATISTA, J.. O primeiro sacramento no cativeiro: Apadrinhamento de africano adulto em Nossa Senhora da Piedade de Iguaçu (1750-1815). 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Juliana Batista</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Encontro Estadual de História ?O BICENTENÁRIO DE INDEPENDÊNCIA DO BRASIL: MEMÓRIAS, NARRATIVAS E HISTORIOGRAFIAS?.ANTÔNIO PINTOR, PERNAMBUCANO E COMUNISTA: TRABALHADORES E REPRESSÃO POLITICA EM PARNAIBA - PI (1950 - 1960).
-						2022. (Simpósio).</t>
+          <t>BATISTA, J.. A pia batismal: uma possibilidade de liberdade na freguesia de Nossa Senhora da Piedade de Iguaçu 1750-1815. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Larissa de Oliveira Farias</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>V Semana de História e I Simpósio Regional do PROFHISTÓRIA ? UESPI: Ensino de História e Direitos Humanos..SUBVERSIVOS: Os inquéritos policiais militares como fontes para a historiografia piauiense (1935-1964).
-						2022. (Simpósio).</t>
+          <t>FARIAS, L. O.. A Importância do APERJ para a Pesquisa Acadêmica. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Inghrid da Costa Masullo Mendes</t>
+          <t>Larissa de Oliveira Farias</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MENDES, Inghrid C. Masullo. Jornada  de Estudos Históricos Professor Manoel Salgado ? Edição 2023. 2023. (Congresso).</t>
+          <t>FARIAS, L. O.. A Baixada Fluminense dos Trabalhadores: organizações e lutas sociais no município de Duque de Caxias (1945-1964). 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Larissa de Oliveira Farias</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GOMES, I. S.; OLIVEIRA, L. S. . Gênero, Maternidade e Testemunho: entre a ditadura e a democracia. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FARIAS, L. O.. 'O ?Motim da Fome?: os impactos da greve geral de 1962 na Baixada Fluminense'. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Larissa de Oliveira Farias</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GOMES, I. S.. O processo de justiça de transição brasileiro: uma análise das Leis No 6.683 de 1979 e No 9.140 de 1995. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FARIAS, L. O.. A Greve de 1962 na Baixada Fluminense. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Lenilson Nóbrega da Silva de Oliveira</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3588,14 +3002,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GOMES, I. S.. O Desaparecimento Forçado na Comissão Nacional da Verdade do Brasil. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, L. N. S.. Trabalho,  moradia e identidade: os escravizados de Vicente Pereira Porto na Corte Imperial. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Lenilson Nóbrega da Silva de Oliveira</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3603,14 +3017,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GOMES, I. S.; MARTINS, F. P. . Violência de gênero e violência sexual: uma análise das categorias e do conceito de vítima no relatório final da Comissão Nacional da Verdade. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, L. N. S.. Trabalho, Identidades e Negócios do Cativeiro: A escravaria africana Ocidental de Vicente Pereira Silva Porto, Corte Imperial. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3618,14 +3032,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GOMES, I. S.; PINTO, S. A. . Trajetória, trauma e testemunho: uma análise do desaparecimento forçado em ?Seu Amigo Esteve Aqui? e ?K. Relato de uma Busca?. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ROSARIO, Luana. ¿Una realidad reconfortante? El petróleo brota a borbotones en la Amazonia brasileña: la llegada de Petrobras a la Amazonia y la constitución de la mano de obra (1955-1964). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3633,29 +3047,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GOMES, I. S.. ?Marcas da Memória?: O estatuto do desaparecido político, Representação e Testemunho na entrevista de Bernardo da Mata Machado. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ROSARIO, Luana da Silva. O sindicato dos petroleiros no pré-64 no Pará: perseguições e as ilusões contra o fantasma do comunismo. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GOMES, I. S.; MARTINS, F. P. . Violência de gênero e violência sexual: as memórias em disputas no relatório final da Comissão Nacional da Verdade. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ROSARIO, Luana. Valorização e desenvolvimento na Amazônia: discursos e debates em torno da  Petrobras (1951-1954). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3663,89 +3077,89 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GOMES, I. S.; PINTO, S. A. . O estatuto do desaparecimento forçado na Comissão Nacional da Verdade. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>OLIVEIRA, Iolanda Chaves Ferreira de ; MEDINA, I. S. L. ; ROSA, A. ;ROSARIO, L. C. S. Imprensa periódica: seus usos historiográficos como fonte ou objeto de pesquisa (1850-1950) (Coordenação de ST). 2022. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GOMES, I. S.. O estatuto do desaparecimento forçado na Comissão Nacional da Verdade: uma análise do sentido de vítima no relatório final da CNV. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEITE, LUCA. Crítica Ambiental no Paraná Imperial (1855-1860). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Isadora Silva Gomes</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GOMES, I. S.. Testemunho, Biografia e História: a análise da trajetória de vida de Felipe Santa Cruz. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEITE, LUCA. Entre a extinção e a barbárie: leituras do Antropoceno a partir de Horizon Zero Dawn. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MEDINA, I. S. L.. POR OUTROS SABERES DO VESTIR: UMA EPISTEMOLOGIA DAS MACUMBAS QUE AJUDE A PENSAR MODOS DE VESTIR SUBALTERNOS. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEITE, LUCA. 'Que terrível devastação': as matas do Paraná e o debate público na era do capitalismo industrial (1854-1889). 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MEDINA, ISIS SARAIVA LEÃO; LIMA, Ana Gabriella dos Santos . LOGRADOUROS NEGROS: A PRESENÇA DE AFRICANOS E AFRODESCENDENTES NOS MORROS DA CONCEIÇÃO E DO VALONGO REGISTRADA EM NOTÍCIAS DO DIÁRIO DO RIO DE JANEIRO ENTRE 1820 E 1840. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FASSHEBER, J. R. M.;LEITE, LUCA. ETNOESPORTE E GÊNERO ENTRE OS PARESI-HALITI. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MEDINA, I. S. L.. ROUPA, MEMÓRIA E AXÉ: REFLEXÕES POSSÍVEIS SOBRE AS VESTES UMBANDISTAS À LUZ DA DECOLONIALIDADE. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEITE, LUCA;FASSHEBER, J. R. M.. Tihimore das Mulheres Paresi-Haliti. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3753,14 +3167,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ABREU, L. S. ; MOREIRA, E. S. ;MEDINA, I. S. L.; FRANKLIN, M. S. ;MENDES, F. R. N.. O TINGIMENTO NATURAL NO PROCESSO CRIATIVO DE MODA: UMA COMPARAÇÃO ENTRE A MARCA GRÃO E A PESQUISADORA TÊXTIL RAYNÁ GOMES. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>LEITE, LUCA;FASSHEBER, J. R. M.. Políticas Ambientais na Província do Paraná (1854 - 1865). 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3768,14 +3182,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MEDINA, I. S. L.;MENDES, F. R. N.. VOVÓ TEM 7 SAIAS, NA ÚLTIMA SAIA TEM MIRONGA: A DIMENSÃO SIMBÓLICA DA INDUMENTÁRIA NO CONTEXTO DO TERREIRO DE UMBANDA. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>LEITE, LUCA;FASSHEBER, J. R. M.. O Meio Ambiente no pensamento Moderno no Paraná Imperial (1854-1889): Politização da Natureza como possibilidade de pesquisa para a História Ambiental. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3783,14 +3197,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MEDINA, I. S. L.;ALBUQUERQUE, P. M. M.. INDUMENTÁRIAS NEGRAS: ANÁLISE DE RETRATOS DE MULHERES NEGRAS EM DEBRET E MARC FERREZ. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>LEITE, LUCA;FASSHEBER, J. R. M.. Estado, Modernidade e Natureza: Politização do Meio Ambiente como possibilidade de pesquisa para História Ambiental (1854-1889). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Luca Araujo de Oliveira Leite</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3798,29 +3212,29 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MEDINA, I. S. L.; FRANKLIN, M. S. ; ABREU, L. S. ;MENDES, F. R. N.. ENTRE MODA, NATUREZA E REGIONALIDADE: O FAZER ARTESANAL DO TINGIMENTO NATURAL NO PROCESSO CRIATIVO. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>LEITE, LUCA. MODERNIDADE E NATUREZA NO BRASIL IMPERIAL: POTENCIALIDADES DE PESQUISA PARA A HISTÓRIA AMBIENTAL (1854-1889). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Isis Saraiva Leão Medina</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MAIA, L. M. ;MARTINS, J. G. V.;MEDINA, I. S. L.;MENDES, F. R. N.. A MODA POR TRÁS DAS TELAS: A RELAÇÃO CORPO-AUTOESTIMA ENTRE O REAL E O VIRTUAL. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B. O intelectual, o militante, o homossexual: como o Brasil dos anos 1960 moldou a nova vida de Conrad Detrez (1937-1985)?. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3828,150 +3242,149 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>THIMOTEO, João Pedro. O Partido dos Trabalhadores na mira da ditadura: Luta de massas e repressão política na transição à democracia (1979-1988).. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>REGO, L. B; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C;QUEIROZ, A. C. B. Universidade, repressão e resistência: a trajetória de docentes cassados pela UFRJ durante a ditadura civil-militar (1964-1985). 2024. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>THIMOTEO, João Pedro. O Partidos dos Trabalhadores e o processo de transição brasileiro. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>BARROSO, L. Conrad Detrez em Brasil e Portugal: memória e legado de um intelectual transnacional. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>João Pedro Teixeira Ferreira Thimoteo</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>THIMOTEO, João Pedro; SOUZA, Andrei Leite de. . UM OUTRO MARX É POSSÍVEL: CRÍTICA DO PROGRESSO E ROMANTISMO EM O CAPITAL. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>REGO, L. B. Além do esquecimento, além do tempo: os silenciamentos presentes na trajetória de vida de Conrad Detrez (1937-1985)?. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BATISTA, J.;BATISTA, J.. Os registros paroquias: batismo de crioulo adulto em Nossa Senhora da Piedade de Iguaçu (1750-1815). 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARROSO, L. Pandemia, universidade e sociedade: um olhar sobre a Extensão Universitária a partir de um curso de extensão. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>BATISTA, J.;BATISTA, J.. O primeiro sacramento no cativeiro: Apadrinhamento de africano adulto em Nossa Senhora da Piedade de Iguaçu (1750-1815). 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>REGO, L. B. Memória como resistência: as Abuelas da Plaza de Mayo e a história como mestra da vida na Argentina. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BATISTA, J.. A pia batismal: uma possibilidade de liberdade na freguesia de Nossa Senhora da Piedade de Iguaçu 1750-1815. 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>REGO, Lucas Barroso. O papel da Educação na promoção da inclusão social: um relato de experiência. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3º Encontro Internacional História &amp; Parcerias e 7º Seminário Fluminense de Pós-Graduandos em História.A pia batismal: uma possibilidade de liberdade na freguesia de Nossa Senhora da Piedade de Iguaçu 1750-1815.
-						2021. (Simpósio).</t>
+          <t>QUEIROZ, A. C. B;CAMARGO, J. L;REGO, L. B. As exposições virtuais da Divisão de Memória Institucional como História Pública e divulgação científica. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Conferência ?Formas de ser forro (Luanda, Rio de Janeiro e São Paulo, séculos XVII-XVIII)?. 2021. (Outra).</t>
+          <t>REGO, Lucas Barroso. O papel do professor na abordagem do autoritarismo: ferramentas didáticas para a formação docente. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mesa-redonda: De escravo a senhor - trajetórias (séculos XVII-XIX).. 2021. (Outra).</t>
+          <t>BARROSO, L. A primeira vida de Conrad Detrez (1937-1962): as influências da vivência católica em uma Liège rural para sua biografia. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Juliana Batista</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Seminário Internacional Antigo Regime nos Trópicos: 20 anos de O Antigo Regime nos Trópicos. 2021. (Seminário).</t>
+          <t>REGO, L. B. Promovendo a diversidade por meio da prática docente: um relato de experiência. 2024. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Larissa de Oliveira Farias</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3979,14 +3392,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>FARIAS, L. O.. A Importância do APERJ para a Pesquisa Acadêmica. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>REGO, L. B;QUEIROZ, A. C. B. Os 60 anos do golpe de 1964 e os impactos na UFRJ: violência, repressão e memórias de resistência. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Larissa de Oliveira Farias</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3994,44 +3407,44 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>FARIAS, L. O.. A Baixada Fluminense dos Trabalhadores: organizações e lutas sociais no município de Duque de Caxias (1945-1964). 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>REGO, L. B;QUEIROZ, A. C. B. As exposições virtuais da Divisão de Memória Institucional (DMI/SiBI/UFRJ) e o papel das novas tecnologias na pesquisa acadêmica. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Larissa de Oliveira Farias</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>FARIAS, L. O.. 'O ?Motim da Fome?: os impactos da greve geral de 1962 na Baixada Fluminense'. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;BARBOSA, S. L. M;SILVA, M. M. V. A. Curso de Cuidadores da Terceira Idade: a articulação entre a Extensão Universitária e os mundos do trabalho. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Larissa de Oliveira Farias</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>FARIAS, L. O.. A Greve de 1962 na Baixada Fluminense. 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>REGO, L. B;PAES, F. W;FREITAS, T. S; SILVA, Q. O ;QUEIROZ, A. C. B. A UFRJ e a ditadura civil-militar (1964-1985): a trajetória dos professores cassados. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4039,14 +3452,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>OLIVEIRA, L. N. S.. Trabalho,  moradia e identidade: os escravizados de Vicente Pereira Porto na Corte Imperial. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B. Extensão e ensino remoto: um relato de experiência. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4054,45 +3467,44 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>OLIVEIRA, L. N. S.. Trabalho, Identidades e Negócios do Cativeiro: A escravaria africana Ocidental de Vicente Pereira Silva Porto, Corte Imperial. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARROSO, L;ASSEMANY, D. Conexões e conversas: transgressões de profissionais da Educação. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>21° Encontro de História da Anpuh- Rio - História, Democracia, Igualdade de Diversidade.A escravidão urbana a partir de um estudo de caso: os Africanos Ocidentais de Vicente Pereira da Silva Porto na cidade do Rio de Janeiro, século XIX.
-						2024. (Simpósio).</t>
+          <t>BARROSO, L. Entre a cruz e a resistência: a trajetória de Conrad Detrez no Brasil (1962-1967). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>The ALARI 3rd Continental Conference on Afro-Latin American Studies. Escravidão Urbana, Etnia e Trabalho: os escravizados de Vicente Porto na cidade do Rio de Janeiro, século XIX. 2024. (Congresso).</t>
+          <t>BARROSO, L. Educação e cuidado em tempos de pandemia: um estudo de caso na extensão universitária. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lenilson Nóbrega da Silva de Oliveira</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4100,59 +3512,59 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>OLIVEIRA, L. N. S.. Práticas da advocacia, gestão e rotina de escritórios. 2023. (Exposição).</t>
+          <t>REGO, L. B; SILVA, Q. O . Universidade e Ditadura: a trajetória dos docentes cassados pela UFRJ (1964-1985). 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana. ¿Una realidad reconfortante? El petróleo brota a borbotones en la Amazonia brasileña: la llegada de Petrobras a la Amazonia y la constitución de la mano de obra (1955-1964). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;BARBOSA, C. E. S;SILVA, M. M. V. A. 'Qualificação para o Cuidado de Crianças e Adolescentes': educação popular e partilha de saberes em tempos de pandemia. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana da Silva. O sindicato dos petroleiros no pré-64 no Pará: perseguições e as ilusões contra o fantasma do comunismo. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, A. D;SILVA, M. E. C;BARBOSA, C. E. S;REGO, L. B; ARAUJO, A. S ; SANTOS, S. L . Dificuldades enfrentadas durante o ensino remoto em tempos de Covid-19. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ROSARIO, Luana. Valorização e desenvolvimento na Amazônia: discursos e debates em torno da  Petrobras (1951-1954). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;DELGADO, M. M;PAIVA, R. M;SILVA, M. M. V. A. 'Qualificação para o Cuidado de Crianças e Adolescentes': resistência e educação popular em tempos de pandemia. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Luana Camila Da Silva Rosario</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4160,29 +3572,29 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>OLIVEIRA, Iolanda Chaves Ferreira de ; MEDINA, I. S. L. ; ROSA, A. ;ROSARIO, L. C. S. Imprensa periódica: seus usos historiográficos como fonte ou objeto de pesquisa (1850-1950) (Coordenação de ST). 2022. (Apresentação de Trabalho/Simpósio).</t>
+          <t>REGO, L. B;ASSEMANY, D. Unindo pontes e conectando conversas: o evento de extensão 'Conexões em Conversa'. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. Crítica Ambiental no Paraná Imperial (1855-1860). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>TEIXEIRA, A. M. C;NASCIMENTO, C. L;FERREIRA, H. C. D;REGO, L. B;DELGADO, M. M. Agroecologia, cidadania e defesa da terra: projeto 'Centro de Cidadania da Praia Vermelha' e a potência da extensão no universo virtual. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4190,14 +3602,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. Entre a extinção e a barbárie: leituras do Antropoceno a partir de Horizon Zero Dawn. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;BARBOSA, C. E. S;NYLAND, J. J. A. O. L;VIEIRA, Y. S. As pós-ditaduras na América Latina de hoje: os mitos historiográficos em torno dos passados autoritários. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4205,97 +3617,97 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. 'Que terrível devastação': as matas do Paraná e o debate público na era do capitalismo industrial (1854-1889). 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, C. E. S;BARRETO, J. A. A;REGO, L. B;NASCIMENTO, E. A; COSTA, Y. X. A ;MENESES, K. S; ROCHA, A. S . Diálogo sobre bullying: relato de experiência de uma roda de conversa. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FASSHEBER, J. R. M.;LEITE, LUCA. ETNOESPORTE E GÊNERO ENTRE OS PARESI-HALITI. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B. Repressão e mobilização: um estudo de caso de uma greve ocorrida durante o Estado Novo. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LEITE, LUCA;FASSHEBER, J. R. M.. Tihimore das Mulheres Paresi-Haliti. 2021. (Apresentação de Trabalho/Seminário).</t>
+          <t>REGO, L. B. Os lenços das Madres e Abuelas de Plaza de Mayo como monumentos do ausente. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>LEITE, LUCA;FASSHEBER, J. R. M.. Políticas Ambientais na Província do Paraná (1854 - 1865). 2021. (Apresentação de Trabalho/Simpósio).</t>
+          <t>BARROSO, L;NYLAND, J. J. A. O. L. Futebol, Política e Repressão: a Argentina durante e após a Copa do Mundo de 1978. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LEITE, LUCA;FASSHEBER, J. R. M.. O Meio Ambiente no pensamento Moderno no Paraná Imperial (1854-1889): Politização da Natureza como possibilidade de pesquisa para a História Ambiental. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;BARBOSA, S. L. M;SILVA, M. M. V. A. Qualificação, Cuidado e Terceira Idade: relatos de um curso de extensão. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>LEITE, LUCA;FASSHEBER, J. R. M.. Estado, Modernidade e Natureza: Politização do Meio Ambiente como possibilidade de pesquisa para História Ambiental (1854-1889). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;CONCEIÇÃO, A. A;QUEIROZ, A. C. B;SOTO, M. C;CAMARGO, J. L. A trajetória e os acervos dos professores cassados da UFRJ durante a ditadura. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Luca Araujo de Oliveira Leite</t>
+          <t>Lucas Barroso Rego</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LEITE, LUCA. MODERNIDADE E NATUREZA NO BRASIL IMPERIAL: POTENCIALIDADES DE PESQUISA PARA A HISTÓRIA AMBIENTAL (1854-1889). 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B. Os Centros Clandestinos de Detenção na ditadura militar argentina (1976-1983): o testemunho como motor de política de memória na Argentina. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4306,11 +3718,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>REGO, L. B. O intelectual, o militante, o homossexual: como o Brasil dos anos 1960 moldou a nova vida de Conrad Detrez (1937-1985)?. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>PAES, F. W;REGO, L. B. A UFRJ e a ditadura civil-militar (1964-1985): trajetórias e cassação de professores. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
@@ -4321,11 +3733,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>REGO, L. B; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C;QUEIROZ, A. C. B. Universidade, repressão e resistência: a trajetória de docentes cassados pela UFRJ durante a ditadura civil-militar (1964-1985). 2024. (Apresentação de Trabalho/Outra).</t>
+          <t>SALES, T. C. R;REGO, L. B;CARVALHO, J. S;GUIMARÃES, M. H. M;MAIA, J. M. Aumento crescente de acidentes com animais peçonhentos do philos Arthropoda no Ceará: um indicador negligenciado. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
@@ -4336,11 +3748,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BARROSO, L. Conrad Detrez em Brasil e Portugal: memória e legado de um intelectual transnacional. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;FERREIRA, H. C. D;DELGADO, M. M. (Re)construindo interações sociais a partir do Centro de Cidadania da Praia Vermelha: novos arranjos para seguir realizando extensão universitária. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
@@ -4351,11 +3763,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>REGO, L. B. Além do esquecimento, além do tempo: os silenciamentos presentes na trajetória de vida de Conrad Detrez (1937-1985)?. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>RAMOS, A. J. F;FERREIRA, H. C. D;BARROSO, L;DELGADO, M. M. Centro de Cidadania da Praia Vermelha: nuevas estrategias para seguir (re)pensando la Extensión Universitaria en tiempos de pandemia. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
@@ -4366,11 +3778,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BARROSO, L. Pandemia, universidade e sociedade: um olhar sobre a Extensão Universitária a partir de um curso de extensão. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARROSO, L. Ações das Madres e Abuelas de Plaza de Mayo e o resgate da história como mestra da vida. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4381,11 +3793,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>REGO, L. B. Memória como resistência: as Abuelas da Plaza de Mayo e a história como mestra da vida na Argentina. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>REGO, L. B;RAMOS, A. J. F;DELGADO, M. M. (Res)significando a distância: uma reflexão sobre o potencial das ações de assessoria desenvolvidas no âmbito do projeto 'Centro de Cidadania da Praia Vermelha' em tempos de pandemia. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
@@ -4396,11 +3808,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>REGO, Lucas Barroso. O papel da Educação na promoção da inclusão social: um relato de experiência. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>FREITAS, I. P. S;REGO, L. B;FREITAS, I. S. História da Educação do Campo: uma visão histórica e jurídica. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
@@ -4411,18 +3823,18 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;REGO, L. B. As exposições virtuais da Divisão de Memória Institucional como História Pública e divulgação científica. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ASSEMANY, D;REGO, L. B; GONÇALVES, D. A. R ;BARBOSA, M. G. Educação e Transversalidade: o evento 'Conexões em Conversa'. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4430,254 +3842,254 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>REGO, Lucas Barroso. O papel do professor na abordagem do autoritarismo: ferramentas didáticas para a formação docente. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
+          <t>MENEZES, Lucas de; RITO, R. C. . O pensamento e os referenciais teóricos da educadora e intelectual feminista Anália Emília Franco: reconstruindo saberes político-educacionais. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BARROSO, L. A primeira vida de Conrad Detrez (1937-1962): as influências da vivência católica em uma Liège rural para sua biografia. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Lucas de. Anália Franco (1853-1919): Uma Feminista na luta pela Educação Democrática. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>REGO, L. B. Promovendo a diversidade por meio da prática docente: um relato de experiência. 2024. (Apresentação de Trabalho/Outra).</t>
+          <t>MENEZES, Lucas de. Feminismo pela Educação: A centralidade feminina no projeto político-educacional de Anália Franco. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>REGO, L. B;QUEIROZ, A. C. B. Os 60 anos do golpe de 1964 e os impactos na UFRJ: violência, repressão e memórias de resistência. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Lucas de. As Damas da Educação na Primeira República: O projeto político-educacional da intelectual feminista Anália Emília Franco. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>REGO, L. B;QUEIROZ, A. C. B. As exposições virtuais da Divisão de Memória Institucional (DMI/SiBI/UFRJ) e o papel das novas tecnologias na pesquisa acadêmica. 2024. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Lucas de. Democracia e República no Pensamento Educacional da Intelectual Feminista Anália Emília Franco (1853-1919). 2023. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>REGO, L. B;BARBOSA, S. L. M;SILVA, M. M. V. A. Curso de Cuidadores da Terceira Idade: a articulação entre a Extensão Universitária e os mundos do trabalho. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Lucas de. Anália Franco: a educação como emancipadora da cidadania democrática. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>REGO, L. B;PAES, F. W;FREITAS, T. S; SILVA, Q. O ;QUEIROZ, A. C. B. A UFRJ e a ditadura civil-militar (1964-1985): a trajetória dos professores cassados. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Lucas de. Anália Franco: a revolução pela educação. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>REGO, L. B. Extensão e ensino remoto: um relato de experiência. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MENEZES, Lucas de. O Pensamento Político Educacional Democrático de Anália Franco. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Souza Nascimento</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BARROSO, L;ASSEMANY, D. Conexões e conversas: transgressões de profissionais da Educação. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>NASCIMENTO, L. S.. NEGROS SINDICATOS: raça, classe, terra e as experiências dos sindicatos rurais e associações na luta pela terra em Cabo Frio(1950-1988). 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Matheus Butrucci Gomes</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BARROSO, L. Entre a cruz e a resistência: a trajetória de Conrad Detrez no Brasil (1962-1967). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, P. H. P. L. ;GOMES, M. B.. Dinâmica Imobiliária de Niterói (RJ): possibilidades de análise a partir da Alameda São Boaventura. 2022. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Matheus Paranhos Giolo Mezadri</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BARROSO, L. Educação e cuidado em tempos de pandemia: um estudo de caso na extensão universitária. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MEZADRI, M. P. G.. A escrita do nacionalismo árabe: a importância da língua nos projetos políticos árabes do século XX. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mayra Mendes Trocado</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>REGO, L. B; SILVA, Q. O . Universidade e Ditadura: a trajetória dos docentes cassados pela UFRJ (1964-1985). 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>TROCADO, M. M.. A dupla dimensão da ausência: presença simbólica dos desaparecidos políticos na fotografia de Gustavo Germano (2006-2017), no I Colóquio Internacional - Deslocamentos, Violências e Direitos Humanos nas Américas: os desafios do tempo presente (Labimi/UERJ). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mayra Mendes Trocado</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>REGO, L. B;BARBOSA, C. E. S;SILVA, M. M. V. A. 'Qualificação para o Cuidado de Crianças e Adolescentes': educação popular e partilha de saberes em tempos de pandemia. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>TROCADO, M. M.. A dupla dimensão da ausência: presença simbólica dos desaparecidos políticos na fotografia de Gustavo Germano (2006-2017), na XVII Semana de História Política da UERJ. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Mayra Mendes Trocado</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SANTOS, A. D;SILVA, M. E. C;BARBOSA, C. E. S;REGO, L. B; ARAUJO, A. S ; SANTOS, S. L . Dificuldades enfrentadas durante o ensino remoto em tempos de Covid-19. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>TROCADO, M. M.. A dupla dimensão da ausência: presença simbólica dos desaparecidos políticos na fotografia de Gustavo Germano (2006-2017), na VI Semana de História da UFRJ. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>REGO, L. B;DELGADO, M. M;PAIVA, R. M;SILVA, M. M. V. A. 'Qualificação para o Cuidado de Crianças e Adolescentes': resistência e educação popular em tempos de pandemia. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GARCIAS, Murilo Rosa. Reavaliando os contatos entre missionários protestantes e maçons brasileiros na Primeira República: um olhar sobre a autobiografia de Salomão Ginsburg. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Murilo Rosa Garcias</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>REGO, L. B;ASSEMANY, D. Unindo pontes e conectando conversas: o evento de extensão 'Conexões em Conversa'. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>GARCIAS, Murilo Rosa. Um judeu protestante na cidade do santo: política, religião e maçonaria em São Fidélis (1893-1900). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>TEIXEIRA, A. M. C;NASCIMENTO, C. L;FERREIRA, H. C. D;REGO, L. B;DELGADO, M. M. Agroecologia, cidadania e defesa da terra: projeto 'Centro de Cidadania da Praia Vermelha' e a potência da extensão no universo virtual. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LIMA, N. S. O.; ARAUJO, Patrícia Vargas L. de . A História Ambiental Urbana como campo de pesquisa - Abordagem a partir da Revisão Sistemática da Literatura (RSL). 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4685,59 +4097,59 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>REGO, L. B;BARBOSA, C. E. S;NYLAND, J. J. A. O. L;VIEIRA, Y. S. As pós-ditaduras na América Latina de hoje: os mitos historiográficos em torno dos passados autoritários. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>LIMA, N. S. O.. Os paradoxos da modernidade na Europa do século XIX: diálogos com o meio urbano. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>BARBOSA, C. E. S;BARRETO, J. A. A;REGO, L. B;NASCIMENTO, E. A; COSTA, Y. X. A ;MENESES, K. S; ROCHA, A. S . Diálogo sobre bullying: relato de experiência de uma roda de conversa. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>LIMA, N. S. O.; QUEIROZ, J. M. ; BHERING, A. D. . O ensino de história em tempos de pandemia: contribuições do ensino digital para a discussão sobre os protagonistas da história. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicolle Sthefane de Oliveira Lima</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>REGO, L. B. Repressão e mobilização: um estudo de caso de uma greve ocorrida durante o Estado Novo. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>SILVA, G. M. ; DORELLA, P. R. ;LIMA, N. S. O.; LOUZADA, V. F. . Historia Pública a partir da extensão: Podcast Música e História Colombiana. 2021. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>REGO, L. B. Os lenços das Madres e Abuelas de Plaza de Mayo como monumentos do ausente. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>MACHADO, P. C.. A proposta curda à crise do Estado-nação: como a primavera árabe se enreda com as imposições fronteiriças coloniais na Síria do século XXI. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4745,14 +4157,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>BARROSO, L;NYLAND, J. J. A. O. L. Futebol, Política e Repressão: a Argentina durante e após a Copa do Mundo de 1978. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>MACHADO, P. C.. A Primavera Árabe na Síria: uma nova identidade em formação na Revolução Curda. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Paulo Cesar Machado Farias Junior</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4760,14 +4172,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>REGO, L. B;BARBOSA, S. L. M;SILVA, M. M. V. A. Qualificação, Cuidado e Terceira Idade: relatos de um curso de extensão. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>MACHADO, P. C.. O movimento de mulheres curdas: a experiência revolucionária como esfera de formação de identidade. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Pedro Henrique Garcia Pinto de Araújo</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4775,14 +4187,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>REGO, L. B;CONCEIÇÃO, A. A;QUEIROZ, A. C. B;SOTO, M. C;CAMARGO, J. L. A trajetória e os acervos dos professores cassados da UFRJ durante a ditadura. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ARAUJO, Pedro Henrique Garcia Pinto de. Diálogos (e influências) entre o Direito e (n)a História do Brasil. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Pedro Henrique Garcia Pinto de Araújo</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4790,29 +4202,29 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>REGO, L. B. Os Centros Clandestinos de Detenção na ditadura militar argentina (1976-1983): o testemunho como motor de política de memória na Argentina. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>ARAUJO, Pedro Henrique Garcia Pinto de. Travessias Atlânticas ? escravidão, tráfico atlântico da África ao Vale do Paraíba Fluminense. 2022. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Pedro Henrique Garcia Pinto de Araújo</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PAES, F. W;REGO, L. B. A UFRJ e a ditadura civil-militar (1964-1985): trajetórias e cassação de professores. 2022. (Apresentação de Trabalho/Seminário).</t>
+          <t>ARAUJO, Pedro Henrique Garcia Pinto de. ? A pesquisa em história em sua relação com ideia central de alguns textos sobre escravidão. 2021. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Pedro Henrique Garcia Pinto de Araújo</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4820,164 +4232,164 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SALES, T. C. R;REGO, L. B;CARVALHO, J. S;GUIMARÃES, M. H. M;MAIA, J. M. Aumento crescente de acidentes com animais peçonhentos do philos Arthropoda no Ceará: um indicador negligenciado. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>ARAUJO, Pedro Henrique Garcia Pinto de. Escravidão e história social do trabalho no Brasil: cor raça e classe nos mundos do trabalho. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>REGO, L. B;FERREIRA, H. C. D;DELGADO, M. M. (Re)construindo interações sociais a partir do Centro de Cidadania da Praia Vermelha: novos arranjos para seguir realizando extensão universitária. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>BARBOSA JUNIOR, S.. Religião, Política e Ensino de História na Zona Oeste do Rio de Janeiro: reflexões sobre extremismos na Educação Básica. 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>RAMOS, A. J. F;FERREIRA, H. C. D;BARROSO, L;DELGADO, M. M. Centro de Cidadania da Praia Vermelha: nuevas estrategias para seguir (re)pensando la Extensión Universitaria en tiempos de pandemia. 2021. (Apresentação de Trabalho/Congresso).</t>
+          <t>BARBOSA JUNIOR, S.; AFRIZIO, M. L. ; ANDERSON, L. . Religião e Educação na Zona Oeste do Rio de Janeiro. 2024. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>BARROSO, L. Ações das Madres e Abuelas de Plaza de Mayo e o resgate da história como mestra da vida. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA JUNIOR, S.. Heresias Medievais, Anabatistas e Quiliastas na Transição do Medievo à Modernidade. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>REGO, L. B;RAMOS, A. J. F;DELGADO, M. M. (Res)significando a distância: uma reflexão sobre o potencial das ações de assessoria desenvolvidas no âmbito do projeto 'Centro de Cidadania da Praia Vermelha' em tempos de pandemia. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>BARBOSA JUNIOR, S.. Educação e intolerância religiosa nas aulas de história em instituições públicas do Rio de Janeiro. 2023. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FREITAS, I. P. S;REGO, L. B;FREITAS, I. S. História da Educação do Campo: uma visão histórica e jurídica. 2021. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA JUNIOR, S.. Educação e conflitos religiosos nas aulas de história em instituições públicas de ensino do Rio de Janeiro. 2023. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Samuel Barbosa Junior</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ASSEMANY, D;REGO, L. B; GONÇALVES, D. A. R ;BARBOSA, M. G. Educação e Transversalidade: o evento 'Conexões em Conversa'. 2021. (Apresentação de Trabalho/Outra).</t>
+          <t>BARBOSA JUNIOR, S.. Wycliffe's Wicket: a interpretação da teoria dos dois caminhos de John Wycliffe e o cristianismo de minorias na Inglaterra medieval. 2022. (Apresentação de Trabalho/Seminário).</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Tadeu Alencar de Azevedo Sant Ana Lemos</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de; RITO, R. C. . O pensamento e os referenciais teóricos da educadora e intelectual feminista Anália Emília Franco: reconstruindo saberes político-educacionais. 2024. (Apresentação de Trabalho/Simpósio).</t>
+          <t>LEMOS, T. A. A. S. A.. Quem vigia os vigilantes? As investigações da Polícia Política do Estado Novo em 1943. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Tadeu Alencar de Azevedo Sant Ana Lemos</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de. Anália Franco (1853-1919): Uma Feminista na luta pela Educação Democrática. 2023. (Apresentação de Trabalho/Simpósio).</t>
+          <t>LEMOS, T. A. A. S. A.. Unidos Contra o Fascismo: o carnaval de 1943. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Tadeu Alencar de Azevedo Sant Ana Lemos</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de. Feminismo pela Educação: A centralidade feminina no projeto político-educacional de Anália Franco. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>LEMOS, T. A. A. S. A.. 'Os Estudantes Apoiam o Coronel Etchegoyen' - o curioso caso do movimento estudantil e o chefe da Polícia do Distrito Federal durante o Estado Novo (1942 e 1943). 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Thaís Regina Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de. As Damas da Educação na Primeira República: O projeto político-educacional da intelectual feminista Anália Emília Franco. 2023. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, T. R. C.. Os movimentos sociais e a sociedade civil como fator de mudança. 2024. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Thaís Regina Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4985,256 +4397,254 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de. Democracia e República no Pensamento Educacional da Intelectual Feminista Anália Emília Franco (1853-1919). 2023. (Apresentação de Trabalho/Outra).</t>
+          <t>BARBOSA, T. R. C.. Revús: Tumulto social ou revolução total. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Thaís Regina Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de. Anália Franco: a educação como emancipadora da cidadania democrática. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>BARBOSA, T. R. C.. Revús: Tumulto social ou revolução total - Sociedade civil. 2023. (Apresentação de Trabalho/Simpósio).</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de. Anália Franco: a revolução pela educação. 2022. (Apresentação de Trabalho/Comunicação).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca; Gaia, D.V. . As Relações de Trabalho em Qumran: Reflexões Iniciais sobre a Economia Monástica às Margens do Mar Morto. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MENEZES, Lucas de. O Pensamento Político Educacional Democrático de Anália Franco. 2022. (Apresentação de Trabalho/Outra).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. 'Que faça a vontade de Yaweh em tudo o que empreende a sua mão': os sentidos do trabalho e da disciplina na comunidade essênia de Qumran. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ciclo de Palestras sobre Ética - PPGLM UFRJ. 2024. (Outra).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. O TRABALHO NOS TEXTOS SECTÁRIOS DE QUMRAN: CONSIDERAÇÕES INICIAIS SOBRE A ECONOMIA DOS ESSÊNIOS DO MAR MORTO. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Homenagem a Newton da Costa - Programa de pós-graduação Lógica e Metafísica da Universidade Federal do Rio de Janeiro. 2024. (Outra).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. A Comunidade Monástica do Mar Morto: considerações sobre os sentidos do trabalho na Regra da Comunidade (1QS) dos essênios de Qumran. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Seminário a violência e os limites do cânone filosófico - UERJ/ UFRJ. 2024. (Seminário).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. Trabalho e Disciplina entre os essênios (II a.C. - I d.C.): Análise da Regra da Comunidade dos Manuscritos do Mar Morto. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>VII EHECO - Encontro de História da Educação do Centro-Oeste - Interseções Entre Ensino e Pesquisa em História da Educação: Desafios e Perspectivas no Centro-Oeste.O pensamento e os referenciais teóricos da educadora e intelectual feminista Anália Emília Franco: reconstruindo saberes político-educacionais.
-						2024. (Encontro).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca; Gaia, D.V. . Disciplina, Trabalho e Devoção: uma análise da Regra da Comunidade dos Manuscritos do Mar Morto. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>V Polytropia - Seminário Nacional de Filosofia Antiga,=. 2024. (Seminário).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. Considerações iniciais sobre Trabalho e Disciplina na Regra da Comunidade (1QS) dos Manuscritos do Mar Morto. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victor Lisboa da Fonseca Santos</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Workshop de Filosofia da Mente. 2024. (Oficina).</t>
+          <t>SANTOS, Victor Lisboa da Fonseca. A Regra da Comunidade (1QS): Disciplina, Trabalho e Devoção entre os essênios do Mar Morto. 2021. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victória Ferreira Cunha</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Workshop de Lógica UFRJ. 2024. (Oficina).</t>
+          <t>CUNHA, V. F.. O Sindicato dos Hidrelétricos e a ditadura militar em Minas Gerais. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victória Ferreira Cunha</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>A Luta pela Terra no Sertão Carioca. 2023. (Outra).</t>
+          <t>CUNHA, V. F.. O sindicalismo estadunidense no Brasil: As relações estabelecidas com o Sindicato dos Trabalhadores na Indústria Energética de Minas Gerais (1964-1985).. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victória Ferreira Cunha</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>História e Memória Social do Teatro: perspectivas para o estudo do teatro como objeto de pesquisa histórica. 2023. (Outra).</t>
+          <t>CUNHA, V. F.. As relações entre o movimento sindical e a ditadura civil-militar no Brasil.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Victória Ferreira Cunha</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>IV Colóquio de Gênero e Pesquisa Histórica.Anália Franco (1853-1919): uma feminista na luta pela educação cidadã e democrática. 2023. (Outra).</t>
+          <t>CUNHA, V. F.. O mundo das trabalhadoras nos periódicos do Sindieletro-MG (1956-1990): o cotidiano, o corpo e a maternidade. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>IV Encontro Nueshe - UNIVERSO.
-						2023. (Encontro).</t>
+          <t>BARBOSA, V. L. C.. MUSEU MAGÜTA NO PERÍODO PÓS-DITATORIAL BRASILEIRO: disputas memorialísticas e identitárias na fronteira étnica do Alto Solimões amazônico (1988 - 1995). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Um esboço acerca da história como autoconhecimento do espírito em R. G. Collingwood - UFRRJ/LAPETHI. 2023. (Outra).</t>
+          <t>BARBOSA, V. L. C.. INDIGENISMO EMANCIPATÓRIO E LUGAR DE MEMÓRIA SUBTERRÂNEA NO ALTO SOLIMÕES (AM) DURANTE A REDEMOCRATIZAÇÃO (1985-1989) O CASO DO GRUPO MAGÜTA/CENTRO DE DOCUMENTAÇÃO E PESQUISA DO ALTO SOLIMÕES (MAGÜTA/CDPAS). 2024. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Workshop de Filosofia da Religião - Programa de pós-graduação Lógica e Metafísica da UFRJ. 2023. (Outra).</t>
+          <t>BARBOSA, V. L. C.; SILVA, B. S. . Oficina Indígenas na História e Fontes Históricas: cidadania e assimilação - entre o ser e não ser indígena. 2024. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5242,15 +4652,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>XII Simpósio Educação e Sociedade Contemporânea - Cap UERJ.
-						2023. (Simpósio).</t>
+          <t>BARBOSA, V. L. C.. Indigenismo emancipatório e lugar de memória subterrânea no Alto Solimões (AM) entre a Ditadura Militar e a Redemocratização (1967-1989): o caso do Grupo Maguta/Centro de Documentação e Pesquisa do Alto Solimões. 2023. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5258,14 +4667,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>7º Seminário Interno do PRONEX - Caminhos da Política no Império do Brasil. 2022. (Seminário).</t>
+          <t>MEDEIROS, N. F. M.;BARBOSA, V. L. C.;LOPES, B. S. G.;ANDRADE, V. S. D.;TUTUNJI, N. M.;AZEVEDO, L. W.;PATZLAFF, R.;CAPUCHO, T. C. J. P.;SCHEEL-YBERT, R.. Educação e ciência em tempos de pandemia: a reinvenção do projeto Arqueologia Viva para o meio virtual.. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5273,14 +4682,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Ciclo de Palestras Antiga e Conexões: Religião e Pluralidade no Império Romano?. 2022. (Outra).</t>
+          <t>BARBOSA, V. L. C.;MEDEIROS, N. F. M.;ANDRADE, V. S. D.;SCHEEL-YBERT, R.;CAPUCHO, T. C. J. P.;PATZLAFF, R.;AZEVEDO, L. W.;LOPES, B. S. G.;TUTUNJI, N. M.; VOTRE, G. C. ; LIMA, A. M. ; LIMA, Mayara Rosa Martins ; VICENTE, M. A. D. . Arqueobotânica nas redes: divulgação científica no meio digital. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5288,1596 +4697,52 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>I Colóquio Regional Sertões, Tempo, Espaço e Natureza. 2022. (Outra).</t>
+          <t>ANDRADE, V. S. D.;MEDEIROS, N. F. M.;BARBOSA, V. L. C.;LOPES, B. S. G.; VICENTE, M. A. D. ;TUTUNJI, N. M.;AZEVEDO, L. W.;PATZLAFF, R.;CAPUCHO, T. C. J. P.;SCHEEL-YBERT, R.. Produção científica nas redes sociais do Laboratório de Arqueobotânica e Paisagem do Museu Nacional. 2022. (Apresentação de Trabalho/Comunicação).</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>II Colóquio Virtual Internacional de História das Américas - UFJF. 2022. (Outra).</t>
+          <t>BARBOSA, V. L. C.;SCHEEL-YBERT, R.;MEDEIROS, N. F. M.;TUTUNJI, N. M.;LOPES, B. S. G.;ANDRADE, V. S. D.;NASCIMENTO, T. C.;CAPUCHO, T. C. J. P.;PATZLAFF, R.;AZEVEDO, L. W.. Projeto de extensão Arqueologia Viva: primeiras impressões. 2021. (Apresentação de Trabalho/Congresso).</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>II Encontro Sergipano de História da Educação.O PENSAMENTO POLÍTICO EDUCACIONAL DEMOCRÁTICO DE ANÁLIA FRANCO.
-						2022. (Encontro).</t>
+          <t>MEDEIROS, N. F. M.;BARBOSA, V. L. C.;ANDRADE, V. S. D.;LOPES, B. S. G.;SCHEEL-YBERT, R.;CAPUCHO, T. C. J. P.;AZEVEDO, L. W.;PATZLAFF, R.. 10 coisas que sabemos sobre os sambaquis.. 2021. (Apresentação de Trabalho/Outra).</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
+          <t>Ísis Carla Vieira Ferreira Coelho</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>I Simpósio de História, Literatura e Resistências - PUC Minas.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Morte e Pós Modernismo em Sandman. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>V Semana de História da UFRJ.Anália Franco: a revolução pela educação (1898-1919). 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>XIII Seminário Nacional de História: Política, Cultura e Sociedade - UERJ.Anália Franco: a educação como emancipadora da cidadania democrática. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Estudos Medievais: Lugares de poder e de conflito no contexto Tardo Antigo e Medieval.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>III Evento Internacional - Aconselhar e prescrever em terras cristãs. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>IV Seminário de Estudos Medievais -PEM-UERJ. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>XVII Simpósio Nacional da ABHR ?II Simpósio Nacional de Estudos da Religião da UEG: Éticas e Religiões em tempos de crise.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Lucas Souza Nascimento</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>NASCIMENTO, L. S.. NEGROS SINDICATOS: raça, classe, terra e as experiências dos sindicatos rurais e associações na luta pela terra em Cabo Frio(1950-1988). 2024. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Lucas Souza Nascimento</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>NASCIMENTO, L. S.. 20 anos da lei 10.639 e a educação antirracista. 20 anos da lei 10.639 e a educação antirracista, Rio de Janeiro, p. 1 - 2, 30 jan.  2023.</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Matheus Butrucci Gomes</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>SANTOS, P. H. P. L. ;GOMES, M. B.. Dinâmica Imobiliária de Niterói (RJ): possibilidades de análise a partir da Alameda São Boaventura. 2022. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Matheus Paranhos Giolo Mezadri</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>MEZADRI, M. P. G.. A escrita do nacionalismo árabe: a importância da língua nos projetos políticos árabes do século XX. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Matheus Paranhos Giolo Mezadri</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>III Seminário de Pesquisa e Ensino da Graduação em História do IFCH - SEPEGH.A crista do pan-arabismo: Nasser e os usos políticos do rádio, 1956-1958. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Matheus Paranhos Giolo Mezadri</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>XXIX Congresso de Iniciação Científica da UNICAMP. A crista do pan-arabismo: Nasser e os usos políticos do rádio, 1956-1958. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Mayra Mendes Trocado</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>TROCADO, M. M.. A dupla dimensão da ausência: presença simbólica dos desaparecidos políticos na fotografia de Gustavo Germano (2006-2017), no I Colóquio Internacional - Deslocamentos, Violências e Direitos Humanos nas Américas: os desafios do tempo presente (Labimi/UERJ). 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Mayra Mendes Trocado</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>TROCADO, M. M.. A dupla dimensão da ausência: presença simbólica dos desaparecidos políticos na fotografia de Gustavo Germano (2006-2017), na XVII Semana de História Política da UERJ. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Mayra Mendes Trocado</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>TROCADO, M. M.. A dupla dimensão da ausência: presença simbólica dos desaparecidos políticos na fotografia de Gustavo Germano (2006-2017), na VI Semana de História da UFRJ. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>GARCIAS, Murilo Rosa. Reavaliando os contatos entre missionários protestantes e maçons brasileiros na Primeira República: um olhar sobre a autobiografia de Salomão Ginsburg. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>GARCIAS, Murilo Rosa. Um judeu protestante na cidade do santo: política, religião e maçonaria em São Fidélis (1893-1900). 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>XXVII Encontro Estadual de História da ANPUH-SP.Reavaliando os contatos entre missionários protestantes e maçons brasileiros na Primeira República: um olhar sobre a autobiografia de Salomão Ginsburg.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>XXVII Encontro Estadual de História da ANPUH-SP.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Maçonaria, antiguidade e usos do passado..
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Semana de Integração Acadêmica da UFRJ. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>ART em Teses: Novas Pesquisas. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>III Evento Internacional: Aconselhar e prescrever em terras cristãs (UNICAMP).
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>I Seminário Discente de Ensino e Pesquisa em História (UFOP). 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Memórias das afroconfrarias - Rio de Janeiro dos séculox XVI a XVIII (IPN). 2021. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Murilo Rosa Garcias</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>XV Semana de História Política (UERJ).Um judeu protestante na cidade do santo: política, religião e maçonaria em São Fidélis (1893-1900). 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>LIMA, N. S. O.; ARAUJO, Patrícia Vargas L. de . A História Ambiental Urbana como campo de pesquisa - Abordagem a partir da Revisão Sistemática da Literatura (RSL). 2023. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>LIMA, N. S. O.. Os paradoxos da modernidade na Europa do século XIX: diálogos com o meio urbano. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>LIMA, N. S. O.; QUEIROZ, J. M. ; BHERING, A. D. . O ensino de história em tempos de pandemia: contribuições do ensino digital para a discussão sobre os protagonistas da história. 2021. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Nicolle Sthefane de Oliveira Lima</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>SILVA, G. M. ; DORELLA, P. R. ;LIMA, N. S. O.; LOUZADA, V. F. . Historia Pública a partir da extensão: Podcast Música e História Colombiana. 2021. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>MACHADO, P. C.. A proposta curda à crise do Estado-nação: como a primavera árabe se enreda com as imposições fronteiriças coloniais na Síria do século XXI. 2024. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>MACHADO, P. C.. A Primavera Árabe na Síria: uma nova identidade em formação na Revolução Curda. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>MACHADO, P. C.. O movimento de mulheres curdas: a experiência revolucionária como esfera de formação de identidade. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>"Oriente Médio e EUA" - Curso para bacharelado em História.A Questão Curda e a luta por soberania em Rojava.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>13ª Semana de Integração Acadêmica da UFRJ 2024. PENSAMENTO POLÍTICO CURDO NA SÍRIA E INTERFACES COM A SEMIÓTICA DE WALTER MIGNOLO. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Colóquio Internacional Deslocamentos, Violências e Direitos Humanos nas Américas: os desafios do tempo presente.A proposta curda à crise do Estado-nação: como a primavera árabe se enreda com as imposições fronteiriças coloniais na Síria do século XXI.
-						2024. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manuel Salgado.O baathismo na construção da república Síria: nacionalismo árabe e a importância da ?asabiyya.
-						2024. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Semana de História Puc-Rio.Nação e Revolução na Síria: o programa político curdo de Nação Democrática.
-						2024. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>11ª Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>V Semana de História - UFRJ.A Primavera Árabe na Síria: uma nova identidade em formação na Revolução Curda. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>XVI Semana de História Política.O movimento de mulheres curdas: a experiência revolucionária como esfera de formação de identidade. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Paulo Cesar Machado Farias Junior</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>MACHADO, P. C.. Jornada de Estudos Históricos Professor Manoel Salgado. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Garcia Pinto de Araújo</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>ARAUJO, Pedro Henrique Garcia Pinto de. Diálogos (e influências) entre o Direito e (n)a História do Brasil. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Garcia Pinto de Araújo</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>ARAUJO, Pedro Henrique Garcia Pinto de. Travessias Atlânticas ? escravidão, tráfico atlântico da África ao Vale do Paraíba Fluminense. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Garcia Pinto de Araújo</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>ARAUJO, Pedro Henrique Garcia Pinto de. ? A pesquisa em história em sua relação com ideia central de alguns textos sobre escravidão. 2021. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Garcia Pinto de Araújo</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>ARAUJO, Pedro Henrique Garcia Pinto de. Escravidão e história social do trabalho no Brasil: cor raça e classe nos mundos do trabalho. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.. Religião, Política e Ensino de História na Zona Oeste do Rio de Janeiro: reflexões sobre extremismos na Educação Básica. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.; AFRIZIO, M. L. ; ANDERSON, L. . Religião e Educação na Zona Oeste do Rio de Janeiro. 2024. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.. Heresias Medievais, Anabatistas e Quiliastas na Transição do Medievo à Modernidade. 2023. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.. Educação e intolerância religiosa nas aulas de história em instituições públicas do Rio de Janeiro. 2023. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.. Educação e conflitos religiosos nas aulas de história em instituições públicas de ensino do Rio de Janeiro. 2023. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Samuel Barbosa Junior</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>BARBOSA JUNIOR, S.. Wycliffe's Wicket: a interpretação da teoria dos dois caminhos de John Wycliffe e o cristianismo de minorias na Inglaterra medieval. 2022. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Tadeu Alencar de Azevedo Sant Ana Lemos</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>LEMOS, T. A. A. S. A.. Quem vigia os vigilantes? As investigações da Polícia Política do Estado Novo em 1943. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Tadeu Alencar de Azevedo Sant Ana Lemos</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>LEMOS, T. A. A. S. A.. Unidos Contra o Fascismo: o carnaval de 1943. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Tadeu Alencar de Azevedo Sant Ana Lemos</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>LEMOS, T. A. A. S. A.. 'Os Estudantes Apoiam o Coronel Etchegoyen' - o curioso caso do movimento estudantil e o chefe da Polícia do Distrito Federal durante o Estado Novo (1942 e 1943). 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>BARBOSA, T. R. C.. Os movimentos sociais e a sociedade civil como fator de mudança. 2024. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>BARBOSA, T. R. C.. Revús: Tumulto social ou revolução total. 2023. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>BARBOSA, T. R. C.. Revús: Tumulto social ou revolução total - Sociedade civil. 2023. (Apresentação de Trabalho/Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>ANPUH.Os movimentos sociais e a sociedade civil como fator de mudança. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>ANPUH.REVÚS, REVOLUÇÃO TOTAL OU TUMULTO SOCIAL ? Sociedade civil angolana enquanto fator de mudança sociopolítica. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Thaís Regina Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>BARBOSA, T. R. C.. Jornada Manoel Salgado - UFRJ. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca; Gaia, D.V. . As Relações de Trabalho em Qumran: Reflexões Iniciais sobre a Economia Monástica às Margens do Mar Morto. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. 'Que faça a vontade de Yaweh em tudo o que empreende a sua mão': os sentidos do trabalho e da disciplina na comunidade essênia de Qumran. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. O TRABALHO NOS TEXTOS SECTÁRIOS DE QUMRAN: CONSIDERAÇÕES INICIAIS SOBRE A ECONOMIA DOS ESSÊNIOS DO MAR MORTO. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. A Comunidade Monástica do Mar Morto: considerações sobre os sentidos do trabalho na Regra da Comunidade (1QS) dos essênios de Qumran. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. Trabalho e Disciplina entre os essênios (II a.C. - I d.C.): Análise da Regra da Comunidade dos Manuscritos do Mar Morto. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca; Gaia, D.V. . Disciplina, Trabalho e Devoção: uma análise da Regra da Comunidade dos Manuscritos do Mar Morto. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. Considerações iniciais sobre Trabalho e Disciplina na Regra da Comunidade (1QS) dos Manuscritos do Mar Morto. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. A Regra da Comunidade (1QS): Disciplina, Trabalho e Devoção entre os essênios do Mar Morto. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>?Foreigners and the shaping of Athenian citizenship in democratic Athens?. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>12 Semana de Integração Acadêmica da UFRJ. ?Que faça a vontade de YAWEH em tudo o que empreende a sua mão?: os sentidos do trabalho e da disciplina a comunidade essênia de Qumran.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Conferência Internacional Israel Como Modelo Cultural: imaginários e usos na nova extrema-direita. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>X Ciclo Internacional de Estudos Antigos e Medievais: Humanidades e Tecnologias aplicadas à Antiguidade e Medievalidade.. O Trabalho nos textos sectários de Qumran: considerações iniciais sobre a economia dos essênios do Mar Morto.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>XIX Jornada de História Antiga / III Jornada Internacional de História Antiga e Medieval: Religião, Conectividade e Conflitos no Mediterrâneo Antigouot;. As relações de Trabalho em Qumran: reflexões iniciais sobre a economia monástica às margens do Mar Morto. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. Quando o Deserto se torna uma ilha: considerações iniciais sobre a Comunidade e Qumran e o Deserto da Judeia.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. Entre ver e enxergar: a escrita da História no Projeto de Extensão Viva+Cidade. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>VIII Ciclo de Debates em Antiguidade: Diferentes Olhares sobre a Antiguidade Oriental. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>FONTES, A. L. ; Gaia, D.V. ; LESSA, F. S. ;SANTOS, Victor Lisboa da Fonseca. XXXIII Ciclo de Debates em História Antiga ? História Antiga em Movimento: 30 anos do LHIA.. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. XXXII Ciclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Victor Lisboa da Fonseca Santos</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>SANTOS, Victor Lisboa da Fonseca. XXXI CIclo de Debates em História Antiga do Laboratório de História Antiga da UFRJ. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Victória Ferreira Cunha</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>CUNHA, V. F.. O Sindicato dos Hidrelétricos e a ditadura militar em Minas Gerais. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Victória Ferreira Cunha</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>CUNHA, V. F.. O sindicalismo estadunidense no Brasil: As relações estabelecidas com o Sindicato dos Trabalhadores na Indústria Energética de Minas Gerais (1964-1985).. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Victória Ferreira Cunha</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>CUNHA, V. F.. As relações entre o movimento sindical e a ditadura civil-militar no Brasil.. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Victória Ferreira Cunha</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>CUNHA, V. F.. O mundo das trabalhadoras nos periódicos do Sindieletro-MG (1956-1990): o cotidiano, o corpo e a maternidade. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.. MUSEU MAGÜTA NO PERÍODO PÓS-DITATORIAL BRASILEIRO: disputas memorialísticas e identitárias na fronteira étnica do Alto Solimões amazônico (1988 - 1995). 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.. INDIGENISMO EMANCIPATÓRIO E LUGAR DE MEMÓRIA SUBTERRÂNEA NO ALTO SOLIMÕES (AM) DURANTE A REDEMOCRATIZAÇÃO (1985-1989) O CASO DO GRUPO MAGÜTA/CENTRO DE DOCUMENTAÇÃO E PESQUISA DO ALTO SOLIMÕES (MAGÜTA/CDPAS). 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.; SILVA, B. S. . Oficina Indígenas na História e Fontes Históricas: cidadania e assimilação - entre o ser e não ser indígena. 2024. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.. Indigenismo emancipatório e lugar de memória subterrânea no Alto Solimões (AM) entre a Ditadura Militar e a Redemocratização (1967-1989): o caso do Grupo Maguta/Centro de Documentação e Pesquisa do Alto Solimões. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>MEDEIROS, N. F. M.;BARBOSA, V. L. C.;LOPES, B. S. G.;ANDRADE, V. S. D.;TUTUNJI, N. M.;AZEVEDO, L. W.;PATZLAFF, R.;CAPUCHO, T. C. J. P.;SCHEEL-YBERT, R.. Educação e ciência em tempos de pandemia: a reinvenção do projeto Arqueologia Viva para o meio virtual.. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.;MEDEIROS, N. F. M.;ANDRADE, V. S. D.;SCHEEL-YBERT, R.;CAPUCHO, T. C. J. P.;PATZLAFF, R.;AZEVEDO, L. W.;LOPES, B. S. G.;TUTUNJI, N. M.; VOTRE, G. C. ; LIMA, A. M. ; LIMA, Mayara Rosa Martins ; VICENTE, M. A. D. . Arqueobotânica nas redes: divulgação científica no meio digital. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>ANDRADE, V. S. D.;MEDEIROS, N. F. M.;BARBOSA, V. L. C.;LOPES, B. S. G.; VICENTE, M. A. D. ;TUTUNJI, N. M.;AZEVEDO, L. W.;PATZLAFF, R.;CAPUCHO, T. C. J. P.;SCHEEL-YBERT, R.. Produção científica nas redes sociais do Laboratório de Arqueobotânica e Paisagem do Museu Nacional. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>BARBOSA, V. L. C.;SCHEEL-YBERT, R.;MEDEIROS, N. F. M.;TUTUNJI, N. M.;LOPES, B. S. G.;ANDRADE, V. S. D.;NASCIMENTO, T. C.;CAPUCHO, T. C. J. P.;PATZLAFF, R.;AZEVEDO, L. W.. Projeto de extensão Arqueologia Viva: primeiras impressões. 2021. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>MEDEIROS, N. F. M.;BARBOSA, V. L. C.;ANDRADE, V. S. D.;LOPES, B. S. G.;SCHEEL-YBERT, R.;CAPUCHO, T. C. J. P.;AZEVEDO, L. W.;PATZLAFF, R.. 10 coisas que sabemos sobre os sambaquis.. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Yeda Santos de Azambuja Montes</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia,.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Yeda Santos de Azambuja Montes</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História: História, Verdade e Tecnologia.Pensando a intelectualidade feminina oitocentista a partir da escritora portuguesa Maria Amália Vaz de Carvalho (1847-1921).
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Yeda Santos de Azambuja Montes</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>Seminário Maternidades Plurais: Maternidade na História. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Ísis Carla Vieira Ferreira Coelho</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
           <t>COELHO, Í. C. V. F.. Entre Azulejos e Tumbeiros. 2024. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Ísis Carla Vieira Ferreira Coelho</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>COELHO, Í. C. V. F.. Jornada Acadêmica Manoel Salgado. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Ísis Carla Vieira Ferreira Coelho</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>COELHO, Í. C. V. F.. Museu de Favela 15 anos. 2023. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Ísis Carla Vieira Ferreira Coelho</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>COELHO, Í. C. V. F.. Projeto Um Século. 2023. (Exposição).</t>
         </is>
       </c>
     </row>
@@ -8500,7 +6365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8573,1742 +6438,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Educação Étnico-Racial nas Escolas. 1. ed. Rio de Janeiro: Árvore de Livros, 2023. v. 1. 161p .</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LEAJANSKI, A. D;PASSOS, A. L. O;SILVA, F. J. A;LUCENA, J. B;REGO, L. B;SILVA, M. S. Prática docente e ensino híbrido: propostas avaliativas em tempos de virtualização da Educação. In: SOUSA, André Cristovão; SOUSA, Ana Paula. (Org.). Práticas docentes durante e pós pandemia (Edição Digital). 1ed.Itapiranga: Schreiben, 2022, v. 1, p. 12-25.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LEAJANSKI, A. D;PASSOS, A. L. O;SILVA, F. J. A;LUCENA, J. B;REGO, L. B;SILVA, M. S. Prática docente e ensino híbrido: propostas avaliativas em tempos de virtualização da Educação. In: SOUSA, André Cristovão; SOUSA, Ana Paula. (Org.). Práticas docentes durante e pós pandemia (Edição Impressa). 1ed.Itapiranga: Schreiben, 2022, v. 1, p. 14-25.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BARROSO, L. 'iQué Suerte, Una Maestra!': aproximações entre políticas de memória das Madres e das Abuelas de Plaza de Mayo e antigas pretensões do topos da historia magistra vitae. In: NASCIMENTO, Marcela Regina Vasconcelos da Silva; XYPAS, Rosiane Maria Soares da Silva; GOMES, Jaciara Josefa. (Org.). Mulher, identidade e discurso: visões plurais. E-book. 1ed.Tutóia: Diálogos, 2022, v. 1, p. 113-129.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>REGO, L. B;CERQUEIRA, M. S;NYLAND, J. J. A. O. L;MARTINS, C. A;LIMA, J. F. Militância, mulheres e a repressão na ditadura civil-militar brasileira (1964-1985). In: BRAGA, Daniel. (Org.). Reflexões e Inovações Nacionais no Século XXI em Ciências Humanas e Sociais. 1ed.Florianópolis: Instituto Scientia, 2022, v. 1, p. 574-575.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PAZ, L. F. S;REGO, L. B;GOMES, E. R. R;MAGALHAES, M. S. Processo de aprendizagem e formação docente: estabelecendo um ensino de história significativo. In: SANTOS, Deivid Alex dos; COSTA, Herika Cristina Oliveira da. (Org.). Educação e aprendizagem: abordagens baseadas em evidências. E-book. 1ed.Itapiranga: Schreiben, 2022, v. 1, p. 194-201.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PAZ, L. F. S;GOMES, E. R. R;SILVA, B. E. H;LIMA, J. F;DIAS, A. M. J;MAGALHAES, M. S;REGO, L. B;SILVA, L. L. A Ísis da Educação na Contemporaneidade: as tessituras da interdisciplinaridade no processo de escolarização. In: CUNHA; Fernando Icaro Jorge; SILVA, Marcela Mary José da; VASCONCELOS; Emanuella Silveira; FÉ, Valmir Messias; GODINHO, Simone; NYLAND, Joana Josiane Lima; PAULO, Francisco Mesquita; SOUZA, Alcione Santos de; PEREIRA, Fábio Rizzuto; BARBOSA, Paulo Roberto. (Org.). Contribuições interdisciplinares em educação e ensino: reflexões contemporâneas (Edição Digital). 1ed.Fortaleza: Via Dourada, 2022, v. 1, p. 120-140.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ASSEMANY, D;BARROSO, L;BARBOSA, M. G. Conexões, conversas e afetos: notas sobre um evento de extensão intercultural. In: AZEVEDO, Sandro Tôrres de; FREDERICO, Aline. (Org.). Relatos da extensão: criatividade e resistência em tempos de pandemia. 1ed.Rio de Janeiro: Universidade Federal do Rio de Janeiro, Pró-Reitoria de Extensão, 2022, v. 1, p. 93-104.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>REGO, L. B;NYLAND, J. J. A. O. L;LIMA, J. F. Repressão, Verdade e Luta: o testemunho como memória na Argentina pós-ditatorial. In: BRAGA, Daniel. (Org.). Pesquisas e Inovações Multidisciplinares em Ciências Humanas e Sociais no Século XXI. 1ed.Florianópolis: Instituto Scientia, 2022, v. 1, p. 251-252.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PAZ, L. F. S;GOMES, E. R. R;SILVA, B. E. H;LIMA, J. F;DIAS, A. M. J;MAGALHAES, M. S;REGO, L. B;SILVA, L. L. A Ísis da Educação na Contemporaneidade: as tessituras da interdisciplinaridade no processo de escolarização. In: CUNHA; Fernando Icaro Jorge; SILVA, Marcela Mary José da; VASCONCELOS; Emanuella Silveira; FÉ, Valmir Messias; GODINHO, Simone; NYLAND, Joana Josiane Lima; PAULO, Francisco Mesquita; SOUZA, Alcione Santos de; PEREIRA, Fábio Rizzuto; BARBOSA, Paulo Roberto. (Org.). Contribuições interdisciplinares em educação e ensino: reflexões contemporâneas (Edição Impressa). 1ed.Fortaleza: Via Dourada, 2022, v. 1, p. 120-140.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Brincando com o trauma: reflexões sobre a cultura de violência em "Anos de Chumbo". In: OLIVEIRA, Welington Silva Santana de; FERREIRA, Hilma Ribeiro de Mendonça. (Org.). Visões plurais: estudos sobre Anos de Chumbo e Outros Contos. 1ed.Rio de Janeiro: CAp-UERJ, 2023, v. 1, p. 36-46.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DELGADO, M. M; FOIS, J ; RIBEIRO, L ;BARROSO, L. Hortinha da PV: limites e desafios à formação agroecológica dos trabalhadores durante a pandemia da Covid-19. In: AZEVEDO, Sandro Tôrres; FREDERIDO, Aline. (Org.). Relatos da extensão: ações e reações em contexto de pandemia. 1ed.Rio de Janeiro: Universidade Federal do Rio de Janeiro, Pró-Reitoria de Extensão, 2023, v. 2, p. 119-126.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>DELGADO, M. M; CAMPOS, B ;LUIZ, F. F;FERREIRA, H. C. D;BARROSO, L. Centro de Cidadania da Praia Vermelha: o desafio de reinventar suas práticas para manter a interação entre a universidade e a sociedade em tempos de crise sanitária. In: AZEVEDO, Sandro Tôrres; FREDERICO, Aline. (Org.). Relatos da extensão: invenção e reinvenção em tempos de pandemia. 1ed.Rio de Janeiro: Universidade Federal do Rio de Janeiro, Pró-Reitoria de Extensão, 2023, v. 3, p. 37-46.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Brincando com o trauma: reflexões sobre a cultura de violência em "Anos de Chumbo". In: FERREIRA, Hilma Ribeiro de Mendonça; OLIVEIRA, Welington Silva Santana de. (Org.). Visões plurais: estudos sobre Anos de Chumbo e outros contos. 2ed.São Paulo: Pedro &amp; João Editores, 2023, v. 2, p. 37-48.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BARROSO, L;PAZ, L. F. S; SANTOS, E. B ; SILVA, I. C . Explorando a interdisciplinaridade por meio da micro-história em sala de aula: contribuições e estratégias pedagógicas. In: ARAÚJO, Rafaele Rodrigues de; SILVA, Grasiele Ruiz; PASINATTO, Joana de Moura; COSTA, Julian Miranda. (Org.). Interdisciplinaridade no Ensino e na Educação: pesquisas além das fronteiras disciplinares. 1ed.Porto Alegre: Mundo Acadêmico, 2024, v. 1, p. 115-123.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>REGO, L. B;NYLAND, J. J. A. O. L. Das arquibancadas ao campo: uma história das representações LGBTQIAPN+ vistas no futebol masculino brasileiro (1977-2023). In: SOUSA, Maiara Gadelha de; SILVA, Cliciano Vieira da; MILAN, Davi; LÔBO, Ítalo Martins; FARIAS, Ronan Sales. (Org.). Estudos e inovações na pesquisa científica. 1ed.Icó: Research, 2024, v. 1, p. 36-37.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>REGO, L. B;NYLAND, J. J. A. O. L. Das arquibancadas ao campo: uma história das representações LGBTQIAPN+ vistas no futebol masculino brasileiro (1977-2023). In: SOUSA, Maiara Gadelha de; SILVA, Cliciano Vieira da; MILAN, Davi; LÔBO, Ítalo Martins; FARIAS, Ronan Sales. (Org.). Estudos e inovações na pesquisa científica. 1ed.Icó: Research, 2024, v. 1, p. 36-37.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>REGO, L. B. História oral. In: DRESCH, Jaime Farias. (Org.). Dicionário Ciência na escola (Edição Digital). 1ed.São Carlos: Pedro &amp; João Editores, 2024, v. 1, p. 133-136.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>REGO, L. B;NYLAND, J. J. A. O. L. Cultura, identidade e resistência: as expressões LGBTQIAPN+ no futebol masculino durante a ditadura militar (1964-1985). In: MACHADO, Gabriella Eldereti. (Org.). Pesquisas acadêmicas em múltiplos olhares. 1ed.Alegrete: TerriED, 2024, v. 1, p. 144-160.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>BARROSO, L. A Copa do Mundo de 1978: ditadura, futebol e memórias na Argentina. Ludopédio, São Paulo, 25 jan.  2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BARROSO, L. A política na pólis a partir dos poemas homéricos. Brasil Escola, On-line, 20 jan.  2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Povos originários e seus papéis outorgados. Café com Sociologia, On-line, 20 jan.  2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>REGO, L. B. O capitalismo industrial no século XIX: uma análise a partir de Émile Durkheim e Karl Marx. LavraPalavra, On-line, 07 mar.  2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>REGO, L. B. O Papel das Mulheres na Ditadura Argentina: restituindo memórias. Generalizando, Rio de Janeiro, 10 jun.  2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>BARROSO, L. A Crise Global de 2008: uma análise marxista dos perigos da financeirização da economia. LavraPalavra, On-line, 03 maio  2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>BARROSO, L. O Papel da Imprensa Elitista nas Crises Institucionais Brasileiras. Taverna do Bloch, On-line, 17 fev.  2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>REGO, L. B. O Capitalismo Parasitário e a Situação da Mulher: uma abordagem a partir das óticas histórica, filmográfica e sociológica. Generalizando, Rio de Janeiro, 10 fev.  2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Inconfidência Mineira (1789). Brasil Escola, On-line, 25 jan.  2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Memórias Femininas sobre a Ditadura no Brasil. Generalizando, Rio de Janeiro, 05 nov.  2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SALES, T. C. R;REGO, L. B;CARVALHO, J. S;GUIMARÃES, M. H. M;MAIA, J. M. Aumento crescente de acidentes com animais peçonhentos do philos Arthropoda no Ceará: um indicador negligenciado. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>REGO, L. B;FERREIRA, H. C. D;DELGADO, M. M. (Re)construindo interações sociais a partir do Centro de Cidadania da Praia Vermelha: novos arranjos para seguir realizando extensão universitária. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>RAMOS, A. J. F;FERREIRA, H. C. D;BARROSO, L;DELGADO, M. M. Centro de Cidadania da Praia Vermelha: nuevas estrategias para seguir (re)pensando la Extensión Universitaria en tiempos de pandemia. 2021. (Apresentação de Trabalho/Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Ações das Madres e Abuelas de Plaza de Mayo e o resgate da história como mestra da vida. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>REGO, L. B;RAMOS, A. J. F;DELGADO, M. M. (Res)significando a distância: uma reflexão sobre o potencial das ações de assessoria desenvolvidas no âmbito do projeto 'Centro de Cidadania da Praia Vermelha' em tempos de pandemia. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FREITAS, I. P. S;REGO, L. B;FREITAS, I. S. História da Educação do Campo: uma visão histórica e jurídica. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ASSEMANY, D;REGO, L. B; GONÇALVES, D. A. R ;BARBOSA, M. G. Educação e Transversalidade: o evento 'Conexões em Conversa'. 2021. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>REGO, L. B;BARBOSA, C. E. S;SILVA, M. M. V. A. 'Qualificação para o Cuidado de Crianças e Adolescentes': educação popular e partilha de saberes em tempos de pandemia. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SANTOS, A. D;SILVA, M. E. C;BARBOSA, C. E. S;REGO, L. B; ARAUJO, A. S ; SANTOS, S. L . Dificuldades enfrentadas durante o ensino remoto em tempos de Covid-19. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>REGO, L. B;DELGADO, M. M;PAIVA, R. M;SILVA, M. M. V. A. 'Qualificação para o Cuidado de Crianças e Adolescentes': resistência e educação popular em tempos de pandemia. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>REGO, L. B;ASSEMANY, D. Unindo pontes e conectando conversas: o evento de extensão 'Conexões em Conversa'. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>TEIXEIRA, A. M. C;NASCIMENTO, C. L;FERREIRA, H. C. D;REGO, L. B;DELGADO, M. M. Agroecologia, cidadania e defesa da terra: projeto 'Centro de Cidadania da Praia Vermelha' e a potência da extensão no universo virtual. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>REGO, L. B;BARBOSA, C. E. S;NYLAND, J. J. A. O. L;VIEIRA, Y. S. As pós-ditaduras na América Latina de hoje: os mitos historiográficos em torno dos passados autoritários. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>BARBOSA, C. E. S;BARRETO, J. A. A;REGO, L. B;NASCIMENTO, E. A; COSTA, Y. X. A ;MENESES, K. S; ROCHA, A. S . Diálogo sobre bullying: relato de experiência de uma roda de conversa. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Repressão e mobilização: um estudo de caso de uma greve ocorrida durante o Estado Novo. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Os lenços das Madres e Abuelas de Plaza de Mayo como monumentos do ausente. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>BARROSO, L;NYLAND, J. J. A. O. L. Futebol, Política e Repressão: a Argentina durante e após a Copa do Mundo de 1978. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>REGO, L. B;BARBOSA, S. L. M;SILVA, M. M. V. A. Qualificação, Cuidado e Terceira Idade: relatos de um curso de extensão. 2022. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>REGO, L. B;CONCEIÇÃO, A. A;QUEIROZ, A. C. B;SOTO, M. C;CAMARGO, J. L. A trajetória e os acervos dos professores cassados da UFRJ durante a ditadura. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Os Centros Clandestinos de Detenção na ditadura militar argentina (1976-1983): o testemunho como motor de política de memória na Argentina. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>PAES, F. W;REGO, L. B. A UFRJ e a ditadura civil-militar (1964-1985): trajetórias e cassação de professores. 2022. (Apresentação de Trabalho/Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>REGO, L. B;BARBOSA, S. L. M;SILVA, M. M. V. A. Curso de Cuidadores da Terceira Idade: a articulação entre a Extensão Universitária e os mundos do trabalho. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>REGO, L. B;PAES, F. W;FREITAS, T. S; SILVA, Q. O ;QUEIROZ, A. C. B. A UFRJ e a ditadura civil-militar (1964-1985): a trajetória dos professores cassados. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Extensão e ensino remoto: um relato de experiência. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>BARROSO, L;ASSEMANY, D. Conexões e conversas: transgressões de profissionais da Educação. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Entre a cruz e a resistência: a trajetória de Conrad Detrez no Brasil (1962-1967). 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Educação e cuidado em tempos de pandemia: um estudo de caso na extensão universitária. 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>REGO, L. B; SILVA, Q. O . Universidade e Ditadura: a trajetória dos docentes cassados pela UFRJ (1964-1985). 2023. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>REGO, L. B. O intelectual, o militante, o homossexual: como o Brasil dos anos 1960 moldou a nova vida de Conrad Detrez (1937-1985)?. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>REGO, L. B; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C;QUEIROZ, A. C. B. Universidade, repressão e resistência: a trajetória de docentes cassados pela UFRJ durante a ditadura civil-militar (1964-1985). 2024. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Conrad Detrez em Brasil e Portugal: memória e legado de um intelectual transnacional. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Além do esquecimento, além do tempo: os silenciamentos presentes na trajetória de vida de Conrad Detrez (1937-1985)?. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Pandemia, universidade e sociedade: um olhar sobre a Extensão Universitária a partir de um curso de extensão. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Memória como resistência: as Abuelas da Plaza de Mayo e a história como mestra da vida na Argentina. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>REGO, Lucas Barroso. O papel da Educação na promoção da inclusão social: um relato de experiência. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;REGO, L. B. As exposições virtuais da Divisão de Memória Institucional como História Pública e divulgação científica. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>REGO, Lucas Barroso. O papel do professor na abordagem do autoritarismo: ferramentas didáticas para a formação docente. 2024. (Apresentação de Trabalho/Conferência ou palestra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>BARROSO, L. A primeira vida de Conrad Detrez (1937-1962): as influências da vivência católica em uma Liège rural para sua biografia. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Promovendo a diversidade por meio da prática docente: um relato de experiência. 2024. (Apresentação de Trabalho/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>REGO, L. B;QUEIROZ, A. C. B. Os 60 anos do golpe de 1964 e os impactos na UFRJ: violência, repressão e memórias de resistência. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>REGO, L. B;QUEIROZ, A. C. B. As exposições virtuais da Divisão de Memória Institucional (DMI/SiBI/UFRJ) e o papel das novas tecnologias na pesquisa acadêmica. 2024. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SILVA, M. M. V. A;CAVALCANTI, C. P. N; SILVA, J. B. S ;OLIVEIRA, W. M;SILVA, R. N.;INOUE, M. F. M;ABREU, S. F;HOSKEN, L. C; PEREIRA, S. J ; SILVA, J ; VIANNA, S. ;FLACH, R. M. D; SOUZA, S. P. M ; ARAUJO, V. S ; JARDIM, M ; MACHADO, A. G. S ;TEIXEIRA, A. M. C;RAMOS, A. J. F;KLEIN, M;BARROSO, L; et.al . Qualificação para Cuidadores da Terceira Idade. 2022. (Curso de curta duração ministrado/Extensão).</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>GONÇALVES, R. V ;BARROSO, L. Mitigação e recomposição das aprendizagens diante dos impactos do contexto pós-pandêmico. 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>CHAVES, M;BARROSO, L. Ações didáticas para a Educação Infantil pós-pandêmica. 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>BELTRÃO, V. M; RODRIGUES, L. C ; ANJOS, M ; SAMPAIO, A ;SOUSA, I. M;FULGENCIO, D. M;BARROSO, L. Oficina de Elaboração de Itens. 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>CAMPOS, J. F;BARROSO, L. Olimpíada Brasileira de Astronomia (OBA) em Sala de Aula. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>RIBEIRO, M, P;FERREIRA, W. C;BARROSO, L. ChatGPT e estratégias para sala de aula: uma combinação possível. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>MOUTA, G ; MONTEIRO, I ;BARROSO, L. Como ser mais inclusivo em sala de aula?. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>RODRIGUES, J ;BARROSO, L; KROUGH, K . Metodologias ativas: tecnologias, ferramentas e materiais lúdicos para sala de aula. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>BELTRÃO, V. M;BARROSO, L. Tecnologia e gamificação na Educação. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SILVA, M. M. V. A;PAIVA, R. M;SCHILKOWSKY, L. B;CAMPOS, D. S;FERNANDES, C. R;BARRETO, A. C. M;FARIAS, R. S;FLEITAS, M. L;FLACH, R. M. D;COUTO, L. L;DELGADO, M. M;SOUZA, T. V;CRUZ, J. R;HOSKEN, L. C; SILVA, J. B. S ;BARROSO, L; MACHADO, A. G. S . Qualificação para o Cuidado de Crianças e Adolescentes. 2021. (Curso de curta duração ministrado/Extensão).</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>REGO, L. B;DELGADO, M. M. Extensão na Escola de Serviço Social.
-						2021. (Desenvolvimento de material didático ou instrucional - Cartilha).</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>FERREIRA, H. C. D;BARROSO, L;DELGADO, M. M. Associativismo - práticas que contribuem e dificultam.
-						2022. (Desenvolvimento de material didático ou instrucional - Cartilha).</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>FERREIRA, H. C. D;BARROSO, L;DELGADO, M. M. Associativismo e Cooperativismo.
-						2022. (Desenvolvimento de material didático ou instrucional - Cartilha).</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>FERREIRA, H. C. D;BARROSO, L;DELGADO, M. M. Grêmio estudantil: como e por que fundar um?.
-						2022. (Desenvolvimento de material didático ou instrucional - Cartilha).</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>ASSEMANY, D; GONÇALVES, D. A. R ;PACHECO, J. F. A;BOSCHI, R. L;GONTIJO, C. H;BARROSO, L;ARAUJO, A. S;SOUZA, V. M. Saber pensar criativamente: intenções e decisões no processo educativo. 2022.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>REGO, L. B;CONCEIÇÃO, A. A;QUEIROZ, A. C. B;SOTO, M. C;CAMARGO, J. L. A trajetória e os acervos dos professores cassados da UFRJ durante a ditadura. 2022.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>FALH, F. C; XAVIER, M ;SERRÃO, M. M. R. S. B;MARINS, L. S. F;BARROSO, L. Gestão das emoções no pós-pandemia. 2022.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>ARAÚJO, N ; SERRA, J ; MASSA, F ;MARINS, L. S. F;BARROSO, L. O Centenário da Semana de Arte Moderna: o que 1922 tem para nos contar?. 2022.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>XAVIER, M ; BARCELOS, E ; FERREIRA, M. A ;MARINS, L. S. F;BARROSO, L. Estratégias para a construção de uma cultura olímpica. 2023.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>ASSEMANY, D; COHEN, A. C ; GONÇALVES, D. A. R ;LEVY, M. A; SÁ, C. G. de ;SANTIAGO, F. R. S. M;BARROSO, L;BARBOSA, M. G. Inovações Pedagógicas nas Escolas em Tempos de Pandemia. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;REGO, L. B. As exposições virtuais da Divisão de Memória Institucional como História Pública e divulgação científica. 2024.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>ALMEIDA, D. B;DIAS, A. M. P;GAMBA JUNIOR, N. G;SABRA, F. G. C;SOARES, L. G. S. B;UMBELINO, L. L;BARROSO, L. Design é carnaval?. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>ASSEMANY, D; GONÇALVES, D. A. R ;LOPES, C. E;SÁ-CHAVES, I. S. C;BARROSO, L;BARBOSA, M. G. Sobre (I)novar e (IN)subordinar: processos necessários ao saber docente. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>FONTES, V. M. G. M;HOEVELER, R. C;BARROSO, L;MOREIRA, V. B. P. Aula Pública Virtual ESS/UFRJ - Os Movimentos Sociais Hoje. 2021.
-							(Programa de rádio ou TV/Mesa redonda).</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>FREITAS, I. S;FREITAS, I. P. S;BARROSO, L;AMORIM, J. S;BRAGA, B. M. R;CARVALHO, K. R;SALES, T. C. R;SILVA, J. F. T;VIANA, R. T. L. I Mostra Científica Nacional. 2021. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>HOLANDA, M. D;PEREIRA, A. R;SILVA, I. S;CARNEIRO, P. H. W;BARROSO, L;LIMA, L. G. R;SILVA, W. M. A;OLIVEIRA, E. S. S. XII Encontro Regional Norte de História Oral &amp; IV Congresso Pan-Amazônico. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>CARVALHO, C. P;SILVA, R. B;MELO, E. S. O;BARROSO, L;RIBEIRO, L. O;MOREIRA, L. B.;PIMENTEL, K. S. M;VALERIO, C. D. D;REIS, M. F;GOMES, J. C. A. XXVI Semana IPPUR. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>ANJOS, R. C. S;OLIVEIRA, M. M;RIBEIRO, A. C. S. M; BARROS, R ;BARROSO, L. IX Seminário de Integração dos Servidores Técnico-Administrativos em Educação. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>GONCALVES, P. A. M. ;RIOS, M. F. B;BARROSO, L; AGUIAR, S ; BARONI, G ; GABRIELA, M ; MILENA, A ; VICTORIA, M ;COSTA, Y. X. A.. Congresso Nacional Multidisciplinar em Ciência. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>COSTA, B. T; SANTI, J ;BARROSO, L;MAIA, H. L. M;VENTURA, A. C. S;PARIZANI, R; FEREIRA, K ; STOFEL, B ; CASTRO, A. . 11ª Semana de Integração Acadêmica da UFRJ. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>PESSOA, A. E. S;LEITE, P. G;AKINRULI, L. C. M. C;BARROSO, L;PAZ, L. F. S. XX Encontro Estadual de História da Associação Nacional de História - Seção Paraíba (ANPUH-PB). 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. A UFRJ e o 7 de setembro: os usos políticos do passado. 2022. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>QUEIROZ, A. C. B;CAMARGO, J. L;SOTO, M. C;CONCEIÇÃO, A. A;PAES, F. W;BARROSO, L;FREITAS, T. S. Galeria de Reitores da Universidade Federal do Rio de Janeiro (UFRJ). 2022. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>BARROSO, L. 1º Concurso de Educação Étnico-Racial nas Escolas. 2022. (Concurso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L. Josué de Castro e o seu legado. 2023. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L; CARVALHO, A ;BARROSO, L. CAp UFRJ 75 Anos. 2023. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>QUEIROZ, A. C. B;CONCEIÇÃO, A. A;CAMARGO, J. L;BARROSO, L; SILVA, Q. O ;FREITAS, T. S;BORGES, V. V. B. C. 12º Seminário Memória, Documentação e Pesquisa. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>SANTOS, J. L. D. M;FARIAS, F. F. C;CRUZ, U. R. X;REGO, L. B. I Congresso Nacional de Educação para a Cidadania. 2024. (Concurso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>COSTA, B. T;BARROSO, L;CARDOSO, A. M. A. S;FIALHO, F. D. O;MAGALHAES, F. R. P;SANTIAGO, F. R. S. M;SANTOS, M. E. A. L. R. N;VENTURA, A. C. S. Festival do Conhecimento UFRJ - Futuros Possíveis. 2021. (Exposição).</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>ASSEMANY, D;NASCIMENTO, E. S;FERREIRA, G. V. L;GOUVEA, M. A;BARROSO, L. GEPIC. 2022; Tema:
-						Informações sobre o Grupo de Estudos e Pesquisas em Insubordinação Criativa (GEPIC). (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>BARROSO, L;BARBOSA, S. L. M;SILVA, M. M. V. A. Cursos de Capacitação do Centro de Cidadania da Praia Vermelha (ESS/UFRJ). 2023; Tema:
-						Divulgação de ações de extensão. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>BARROSO, L;ASSEMANY, D;BARBOSA, M. G;LAGRANGE, L. M;SANTIAGO, F. R. S. M;ARAUJO, A. S;SOUZA, V. M. Conexões em Conversa. 2021; Tema:
-						Rodas de Conversa sobre a Educação em diferentes contextos com professores convidados de países de cultura lusófona. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>MAIA, H. L. M;RIBEIRO, V. C;BARROSO, L;COSTA, J. B. C;DINIZ, A. S. Revista Arena. 2022; Tema:
-						Divulgação das produções textuais da Revista Arena, além de indicações e resumos semanais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>BARROSO, L;FREITAS, I. P. S;FREITAS, I. S;RIBEIRO, L. A. A;SALES, T. C. R;VIANA, R. T. L. Instituto Science. 2021; Tema:
-						Divulgação de temáticas científicas e de eventos acadêmicos. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Lucas Mariel de Carvalho Carnaúba de Menezes</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C119" t="inlineStr">
         <is>
           <t>MENEZES, LUCAS MARIEL DE C. C. DE. The Democratic Political-Educational Thought of Anália Franco. International Journal of Human Sciences Research, 2024.</t>
         </is>
@@ -11108,7 +7244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11136,89 +7272,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ferreira Marques</t>
+          <t>Ariadne Pires Barbosa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisa: História Política e Extrema Direita.O fim do homem soviético? Evocações do(s) passado(s) por Vladimir Putin.
-						2023. (Encontro).</t>
+          <t>BARBOSA, A. P.. A identificação arquivística e a análise paleográfica de documentos no acervo permanente do Arquivo Central do Poder Judiciário do Estado do Rio de Janeiro: um estudo de caso 2022 (Trabalho de conclusão de curso).</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ferreira Marques</t>
+          <t>Danielle Freire da Silva</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2023</v>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.A dupla revolução: um estudo das representações do passado no cinema de Sergei Eisenstein. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ana Beatriz Ferreira Marques</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Semana de História Política da UERJ.Cinema e revolução: uma análise das representações do passado nos filme de Eisenstein. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ana Beatriz Ferreira Marques</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>VI Colóquio Internacional de Cinema e História. A dupla revolução:uma análise das representações do passado nos filmes Outubro (1927) e O velho e o novo (1929), de Sergei Eisenstein. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ariadne Pires Barbosa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BARBOSA, A. P.. A identificação arquivística e a análise paleográfica de documentos no acervo permanente do Arquivo Central do Poder Judiciário do Estado do Rio de Janeiro: um estudo de caso 2022 (Trabalho de conclusão de curso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>SILVA, D. F.; ROSARIO, L. S. ; MEDINA, I. S. L. ; BARBOSA, D. S. ; GOMES, I. S. ; MANSULLO, I. C. ; MARTINS, L. I. ; PIRES, L. C. ; FARIA, T. B. . Caderno de Resumos da Jornada de Estudos Históricos Professor Manoel Salgado: Resistência indígena no Brasil: Desafios contemporâneos, confronto territorial e violência institucional.
 						Rio de Janeiro:
@@ -11226,121 +7301,16 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos professor Manoel Salgado - Edição 2023.As ocupações de terras e corridas de cercos mapuche no governo Salvador Allende (1970-1973). 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Seminário de História Oral, Memória e Violência Política no Mundo Contemporâneo.As mobilizações mapuches na Revista Punto Final (1970-1973). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Seminário internacional 50 anos do golpe no Chile: perspectivas histórias e desafios atuais.As mobilizações indígenas na imprensa meridional: visões e representações dos mapuches no governo Salvador Allende (1970-1973). 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>XVII Semana de História Política.A historiografia subalterna dos historiadores mapuche: uma análise crítica do livro ¡?Escucha, Winka?! Cuatro Ensayos de Historia Nacional Mapuche y un epílogo sobre el futuro. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>XVI Semana de História Política: De(s)colonizar a História: feminismos, resistências e interseccionalidade / XIII Seminário Nacional de História: Política, Cultura e Sociedade.A mobilização social mapuche nos anos da via chilena ao socialismo (1970-1973): uma leitura a partir dos jornais de esquerda. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ARAÚJO, MARIA PAULA NASCIMENTO ;DA SILVA, DANIELLE FREIRE; SILVA, LAYS CORREA ; GEROMEL, B. ; MANGUEIRA, B. ; MAROJA, R. . Seminário de História Oral, Memória e Violência Política no Mundo Contemporâneo. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Danielle Freire da Silva</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SILVA, D. F.; ROSARIO, L. S. ; FARIA, T. B. ; BARBOSA, D. S. ; MEDINA, I. S. L. ; Alexia Rosa . Jornada de Estudos Históricos Professor Manoel Salgado - Edição 2023. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Luana Camila Da Silva Rosario</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>ROSARIO, Luana. Apresentação.
 						Rio de Janeiro:
@@ -11348,6 +7318,176 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>REGO, L. B. Uma história política da transição brasileira: novas interpretações e temporalizações do período. Revista Marginal, Vitória da Conquista, v. 1, n. 1, p. 64-71, 2024 (Ensaio).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>REGO, L. B. Uma breve reflexão sobre o olhar filosófico e historiográfico de Ernst Cassirer em 'A Conquista do Mundo Histórico'. Café com Sociologia,
+							 2023 (Resenha em blog).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>REGO, L. B;NYLAND, J. J. A. O. L. O destino e a atualidade de Martinho Lutero. 29 de abril, revista de História, Maringá, v. 3, n. 4, p. 102-106, 2023 (Resenha em revista científica).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>REGO, L. B. Cena política, Estado e capitalismo: para além da 'repressão-ideologia'. LavraPalavra,
+							 2023 (Resenha em blog).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BARROSO, L. O ano mítico de 1968: clima político, simbolismo cultural e lógica transnacional em '1968 Cinquentão'. Revista Eletrônica Discente Homos, Campina Grande, v. 4, n. 4, p. 460-464, 2023 (Resenha em revista científica).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BARROSO, L. Educação Étnico-Racial nas Escolas. In: BARROSO, Lucas (Org.). Educação Étnico-Racial nas Escolas. Rio de Janeiro: Árvore de Livros, 2023. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BARROSO, L. Cena política moderna na sociedade capitalista: as opacidades e os interesses de classe. Café com Sociologia,
+							 2022 (Resenha em blog).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BARROSO, L. 'História e Etnologia: totalidades e particularidades de duas ciências complementares. Café com Sociologia,
+							 2022 (Resenha em blog).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>REGO, L. B. Guerra e marxismo: as contribuições de Marx e Engels. LavraPalavra,
+							 2022 (Resenha em blog).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BARROSO, L. Resenha de 'A máquina do ódio: notas de uma repórter sobre fake news e violência digital'. Revista Eletrônica História em Reflexão, Dourados, v. 16, n. 32, p. 281-286, 2022 (Resenha em revista científica).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lucas Barroso Rego</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>REGO, L. B;NYLAND, J. J. A. O. L. Do Queijo das Críticas aos Vermes da Inquisição: a vivência e as ideias heréticas de Domenico Scandella. 29 de abril, revista de História, Maringá, v. 1, n. 2, p. 50-57, 2022 (Resenha em revista científica).</t>
+        </is>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
@@ -11355,11 +7495,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>REGO, L. B. Uma história política da transição brasileira: novas interpretações e temporalizações do período. Revista Marginal, Vitória da Conquista, v. 1, n. 1, p. 64-71, 2024 (Ensaio).</t>
+          <t>BARROSO, L. Esquerdas Revolucionárias na América do Sul: o atual resgate histórico de ideais revolucionários contra o reacionarismo contemporâneo. Revista Discente Planície Científica, Niterói, v. 4, n. 1, p. 297-300, jan./jul. 2022 (Resenha em revista científica).</t>
         </is>
       </c>
     </row>
@@ -11370,12 +7510,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>REGO, L. B. Uma breve reflexão sobre o olhar filosófico e historiográfico de Ernst Cassirer em 'A Conquista do Mundo Histórico'. Café com Sociologia,
-							 2023 (Resenha em blog).</t>
+          <t>REGO, Lucas Barroso. O Livro Azul. Fortaleza: Revista de História Bilros: História(s), Sociedade(s) e Cultura(s), 2022. (Tradução/Livro).</t>
         </is>
       </c>
     </row>
@@ -11386,193 +7525,24 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>REGO, L. B;NYLAND, J. J. A. O. L. O destino e a atualidade de Martinho Lutero. 29 de abril, revista de História, Maringá, v. 3, n. 4, p. 102-106, 2023 (Resenha em revista científica).</t>
+          <t>REGO, L. B. A Autobiografia de Martin Luther King: uma análise da atuação antirracista não violenta nos espaços segregados dos anos 1960 nos Estados Unidos. Revista de História (UFBA), Salvador, v. 9, n. 1, p. 1-6, 2021 (Resenha em revista científica).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lucas Barroso Rego</t>
+          <t>Nicoly Goldschmidt Vitorino</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Cena política, Estado e capitalismo: para além da 'repressão-ideologia'. LavraPalavra,
-							 2023 (Resenha em blog).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BARROSO, L. O ano mítico de 1968: clima político, simbolismo cultural e lógica transnacional em '1968 Cinquentão'. Revista Eletrônica Discente Homos, Campina Grande, v. 4, n. 4, p. 460-464, 2023 (Resenha em revista científica).</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Educação Étnico-Racial nas Escolas. In: BARROSO, Lucas (Org.). Educação Étnico-Racial nas Escolas. Rio de Janeiro: Árvore de Livros, 2023. (Prefácio, Pósfacio/Prefácio)&gt;.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Cena política moderna na sociedade capitalista: as opacidades e os interesses de classe. Café com Sociologia,
-							 2022 (Resenha em blog).</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>BARROSO, L. 'História e Etnologia: totalidades e particularidades de duas ciências complementares. Café com Sociologia,
-							 2022 (Resenha em blog).</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>REGO, L. B. Guerra e marxismo: as contribuições de Marx e Engels. LavraPalavra,
-							 2022 (Resenha em blog).</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Resenha de 'A máquina do ódio: notas de uma repórter sobre fake news e violência digital'. Revista Eletrônica História em Reflexão, Dourados, v. 16, n. 32, p. 281-286, 2022 (Resenha em revista científica).</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>REGO, L. B;NYLAND, J. J. A. O. L. Do Queijo das Críticas aos Vermes da Inquisição: a vivência e as ideias heréticas de Domenico Scandella. 29 de abril, revista de História, Maringá, v. 1, n. 2, p. 50-57, 2022 (Resenha em revista científica).</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>BARROSO, L. Esquerdas Revolucionárias na América do Sul: o atual resgate histórico de ideais revolucionários contra o reacionarismo contemporâneo. Revista Discente Planície Científica, Niterói, v. 4, n. 1, p. 297-300, jan./jul. 2022 (Resenha em revista científica).</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>REGO, Lucas Barroso. O Livro Azul. Fortaleza: Revista de História Bilros: História(s), Sociedade(s) e Cultura(s), 2022. (Tradução/Livro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lucas Barroso Rego</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>REGO, L. B. A Autobiografia de Martin Luther King: uma análise da atuação antirracista não violenta nos espaços segregados dos anos 1960 nos Estados Unidos. Revista de História (UFBA), Salvador, v. 9, n. 1, p. 1-6, 2021 (Resenha em revista científica).</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Nicoly Goldschmidt Vitorino</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>BETÂNIA E SILVA, M. ;VITORINO, N. G.. Elegia.
 						Recife:
@@ -11591,7 +7561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11859,120 +7829,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Victor Brandão de Oliveira</t>
+          <t>Vitória Luyza Cardoso Barbosa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>Nos gramados da democracia: reflexões sobre esporte e mídia. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>XI Encontro de Pesquisa em História da UFMG - "Narrativas em disputa: nostalgia, identidades e apropriações do passado".O êxodo de nossos santos: o Brasil no mercado no futebolístico global (1978-90).
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>11a Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4o Simpósio Internacional de Estudos sobre Futebol.“Zico ou Áustria”: os desdobramentos da transferência de Arthur Antunes Coimbra para o Udinese e as fronteiras invisíveis do futebol (1983).
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.Espetacularização, Globalização, Crise e os Mercados no Futebol: as transferências de jogadores brasileiros para clubes do exterior (1978-1990). 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>IV Seminário Internacional Micro-história, Trajetória e Imigração.As fronteiras invisíveis do futebol: as transferências de jogadores brasileiros para clubes do exterior (1980-1990). 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Victor Brandão de Oliveira</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>VI Semana de História - Sujeitos, olhares e métodos: os desafios e perspectivas da interdisciplinaridade na História. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Vitória Luyza Cardoso Barbosa</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>BARBOSA, V. L. C.. MUSEU MAGÜTA NO PERÍODO PÓS-DITATORIAL BRASILEIRO: disputas memorialísticas e identitárias na fronteira étnica do Alto Solimões amazônico (1988 - 1995). In: 21º Encontro de História da ANPUH-Rio, 2024, Duque de Caxias. História, democracia, igualdade e diversidade, 2024.</t>
         </is>
